--- a/data/input_data_peru.xlsx
+++ b/data/input_data_peru.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom.walsh\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E61A3A-3A5B-4822-8003-77F6E40623C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC942B8-6279-4F69-B5C2-2F245561EA86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-7380" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="23595" yWindow="-3000" windowWidth="20445" windowHeight="10680" tabRatio="839" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_sex" sheetId="1" r:id="rId1"/>
@@ -751,13 +751,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1178,7 +1178,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1237,7 +1237,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1294,7 +1294,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="50" t="s">
         <v>71</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1353,7 +1353,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1410,7 +1410,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="50" t="s">
         <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1469,7 +1469,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1526,7 +1526,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="50" t="s">
         <v>73</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1585,7 +1585,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1642,7 +1642,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="50" t="s">
         <v>74</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1701,7 +1701,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1758,7 +1758,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="50" t="s">
         <v>75</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1817,7 +1817,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1874,7 +1874,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="50" t="s">
         <v>76</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1933,7 +1933,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1990,7 +1990,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="50" t="s">
         <v>77</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2049,7 +2049,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
@@ -2106,7 +2106,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="50" t="s">
         <v>78</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2165,7 +2165,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
@@ -2222,7 +2222,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="50" t="s">
         <v>79</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2281,7 +2281,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
@@ -2338,7 +2338,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="50" t="s">
         <v>80</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2397,7 +2397,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
@@ -2455,17 +2455,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2541,7 +2541,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="36" t="s">
@@ -2600,7 +2600,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="36" t="s">
         <v>1</v>
       </c>
@@ -2657,7 +2657,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="36" t="s">
         <v>2</v>
       </c>
@@ -2714,7 +2714,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="36" t="s">
         <v>3</v>
       </c>
@@ -2771,7 +2771,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="36" t="s">
         <v>4</v>
       </c>
@@ -2828,7 +2828,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="36" t="s">
         <v>5</v>
       </c>
@@ -2885,7 +2885,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="36" t="s">
         <v>6</v>
       </c>
@@ -2942,7 +2942,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="36" t="s">
         <v>7</v>
       </c>
@@ -2999,7 +2999,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="36" t="s">
         <v>8</v>
       </c>
@@ -3056,7 +3056,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="36" t="s">
         <v>9</v>
       </c>
@@ -3113,7 +3113,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="36" t="s">
         <v>10</v>
       </c>
@@ -3170,7 +3170,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="36" t="s">
         <v>11</v>
       </c>
@@ -3227,7 +3227,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="36" t="s">
         <v>12</v>
       </c>
@@ -3284,7 +3284,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="36" t="s">
         <v>13</v>
       </c>
@@ -3341,7 +3341,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="36" t="s">
         <v>14</v>
       </c>
@@ -3398,7 +3398,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="36" t="s">
         <v>15</v>
       </c>
@@ -3455,7 +3455,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="50" t="s">
         <v>71</v>
       </c>
       <c r="B18" s="36" t="s">
@@ -3514,7 +3514,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="36" t="s">
         <v>1</v>
       </c>
@@ -3571,7 +3571,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="36" t="s">
         <v>2</v>
       </c>
@@ -3628,7 +3628,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="36" t="s">
         <v>3</v>
       </c>
@@ -3685,7 +3685,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="36" t="s">
         <v>4</v>
       </c>
@@ -3742,7 +3742,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="36" t="s">
         <v>5</v>
       </c>
@@ -3799,7 +3799,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="36" t="s">
         <v>6</v>
       </c>
@@ -3856,7 +3856,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="36" t="s">
         <v>7</v>
       </c>
@@ -3913,7 +3913,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="36" t="s">
         <v>8</v>
       </c>
@@ -3970,7 +3970,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="36" t="s">
         <v>9</v>
       </c>
@@ -4027,7 +4027,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="36" t="s">
         <v>10</v>
       </c>
@@ -4084,7 +4084,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="36" t="s">
         <v>11</v>
       </c>
@@ -4141,7 +4141,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="36" t="s">
         <v>12</v>
       </c>
@@ -4198,7 +4198,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="36" t="s">
         <v>13</v>
       </c>
@@ -4255,7 +4255,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="36" t="s">
         <v>14</v>
       </c>
@@ -4312,7 +4312,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="36" t="s">
         <v>15</v>
       </c>
@@ -4369,7 +4369,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="50" t="s">
         <v>72</v>
       </c>
       <c r="B34" s="36" t="s">
@@ -4428,7 +4428,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="36" t="s">
         <v>1</v>
       </c>
@@ -4485,7 +4485,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="36" t="s">
         <v>2</v>
       </c>
@@ -4542,7 +4542,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="36" t="s">
         <v>3</v>
       </c>
@@ -4599,7 +4599,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
+      <c r="A38" s="50"/>
       <c r="B38" s="36" t="s">
         <v>4</v>
       </c>
@@ -4656,7 +4656,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
+      <c r="A39" s="50"/>
       <c r="B39" s="36" t="s">
         <v>5</v>
       </c>
@@ -4713,7 +4713,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
+      <c r="A40" s="50"/>
       <c r="B40" s="36" t="s">
         <v>6</v>
       </c>
@@ -4770,7 +4770,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
+      <c r="A41" s="50"/>
       <c r="B41" s="36" t="s">
         <v>7</v>
       </c>
@@ -4827,7 +4827,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
+      <c r="A42" s="50"/>
       <c r="B42" s="36" t="s">
         <v>8</v>
       </c>
@@ -4884,7 +4884,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
+      <c r="A43" s="50"/>
       <c r="B43" s="36" t="s">
         <v>9</v>
       </c>
@@ -4941,7 +4941,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
+      <c r="A44" s="50"/>
       <c r="B44" s="36" t="s">
         <v>10</v>
       </c>
@@ -4998,7 +4998,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
+      <c r="A45" s="50"/>
       <c r="B45" s="36" t="s">
         <v>11</v>
       </c>
@@ -5055,7 +5055,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
+      <c r="A46" s="50"/>
       <c r="B46" s="36" t="s">
         <v>12</v>
       </c>
@@ -5112,7 +5112,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="48"/>
+      <c r="A47" s="50"/>
       <c r="B47" s="36" t="s">
         <v>13</v>
       </c>
@@ -5169,7 +5169,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="48"/>
+      <c r="A48" s="50"/>
       <c r="B48" s="36" t="s">
         <v>14</v>
       </c>
@@ -5226,7 +5226,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
+      <c r="A49" s="50"/>
       <c r="B49" s="36" t="s">
         <v>15</v>
       </c>
@@ -5283,7 +5283,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="48" t="s">
+      <c r="A50" s="50" t="s">
         <v>73</v>
       </c>
       <c r="B50" s="36" t="s">
@@ -5342,7 +5342,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="48"/>
+      <c r="A51" s="50"/>
       <c r="B51" s="36" t="s">
         <v>1</v>
       </c>
@@ -5399,7 +5399,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="48"/>
+      <c r="A52" s="50"/>
       <c r="B52" s="36" t="s">
         <v>2</v>
       </c>
@@ -5456,7 +5456,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="48"/>
+      <c r="A53" s="50"/>
       <c r="B53" s="36" t="s">
         <v>3</v>
       </c>
@@ -5513,7 +5513,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="48"/>
+      <c r="A54" s="50"/>
       <c r="B54" s="36" t="s">
         <v>4</v>
       </c>
@@ -5570,7 +5570,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="48"/>
+      <c r="A55" s="50"/>
       <c r="B55" s="36" t="s">
         <v>5</v>
       </c>
@@ -5627,7 +5627,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="48"/>
+      <c r="A56" s="50"/>
       <c r="B56" s="36" t="s">
         <v>6</v>
       </c>
@@ -5684,7 +5684,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="48"/>
+      <c r="A57" s="50"/>
       <c r="B57" s="36" t="s">
         <v>7</v>
       </c>
@@ -5741,7 +5741,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="48"/>
+      <c r="A58" s="50"/>
       <c r="B58" s="36" t="s">
         <v>8</v>
       </c>
@@ -5798,7 +5798,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="48"/>
+      <c r="A59" s="50"/>
       <c r="B59" s="36" t="s">
         <v>9</v>
       </c>
@@ -5855,7 +5855,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="48"/>
+      <c r="A60" s="50"/>
       <c r="B60" s="36" t="s">
         <v>10</v>
       </c>
@@ -5912,7 +5912,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="48"/>
+      <c r="A61" s="50"/>
       <c r="B61" s="36" t="s">
         <v>11</v>
       </c>
@@ -5969,7 +5969,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="48"/>
+      <c r="A62" s="50"/>
       <c r="B62" s="36" t="s">
         <v>12</v>
       </c>
@@ -6026,7 +6026,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="48"/>
+      <c r="A63" s="50"/>
       <c r="B63" s="36" t="s">
         <v>13</v>
       </c>
@@ -6083,7 +6083,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="48"/>
+      <c r="A64" s="50"/>
       <c r="B64" s="36" t="s">
         <v>14</v>
       </c>
@@ -6140,7 +6140,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="48"/>
+      <c r="A65" s="50"/>
       <c r="B65" s="36" t="s">
         <v>15</v>
       </c>
@@ -6197,7 +6197,7 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="48" t="s">
+      <c r="A66" s="50" t="s">
         <v>74</v>
       </c>
       <c r="B66" s="36" t="s">
@@ -6256,7 +6256,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="48"/>
+      <c r="A67" s="50"/>
       <c r="B67" s="36" t="s">
         <v>1</v>
       </c>
@@ -6313,7 +6313,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="48"/>
+      <c r="A68" s="50"/>
       <c r="B68" s="36" t="s">
         <v>2</v>
       </c>
@@ -6370,7 +6370,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="48"/>
+      <c r="A69" s="50"/>
       <c r="B69" s="36" t="s">
         <v>3</v>
       </c>
@@ -6427,7 +6427,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="48"/>
+      <c r="A70" s="50"/>
       <c r="B70" s="36" t="s">
         <v>4</v>
       </c>
@@ -6484,7 +6484,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="48"/>
+      <c r="A71" s="50"/>
       <c r="B71" s="36" t="s">
         <v>5</v>
       </c>
@@ -6541,7 +6541,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="48"/>
+      <c r="A72" s="50"/>
       <c r="B72" s="36" t="s">
         <v>6</v>
       </c>
@@ -6598,7 +6598,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="48"/>
+      <c r="A73" s="50"/>
       <c r="B73" s="36" t="s">
         <v>7</v>
       </c>
@@ -6655,7 +6655,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="48"/>
+      <c r="A74" s="50"/>
       <c r="B74" s="36" t="s">
         <v>8</v>
       </c>
@@ -6712,7 +6712,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="48"/>
+      <c r="A75" s="50"/>
       <c r="B75" s="36" t="s">
         <v>9</v>
       </c>
@@ -6769,7 +6769,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="48"/>
+      <c r="A76" s="50"/>
       <c r="B76" s="36" t="s">
         <v>10</v>
       </c>
@@ -6826,7 +6826,7 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="48"/>
+      <c r="A77" s="50"/>
       <c r="B77" s="36" t="s">
         <v>11</v>
       </c>
@@ -6883,7 +6883,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="48"/>
+      <c r="A78" s="50"/>
       <c r="B78" s="36" t="s">
         <v>12</v>
       </c>
@@ -6940,7 +6940,7 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="48"/>
+      <c r="A79" s="50"/>
       <c r="B79" s="36" t="s">
         <v>13</v>
       </c>
@@ -6997,7 +6997,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="48"/>
+      <c r="A80" s="50"/>
       <c r="B80" s="36" t="s">
         <v>14</v>
       </c>
@@ -7054,7 +7054,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="48"/>
+      <c r="A81" s="50"/>
       <c r="B81" s="36" t="s">
         <v>15</v>
       </c>
@@ -7111,7 +7111,7 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="48" t="s">
+      <c r="A82" s="50" t="s">
         <v>75</v>
       </c>
       <c r="B82" s="36" t="s">
@@ -7170,7 +7170,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="48"/>
+      <c r="A83" s="50"/>
       <c r="B83" s="36" t="s">
         <v>1</v>
       </c>
@@ -7227,7 +7227,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="48"/>
+      <c r="A84" s="50"/>
       <c r="B84" s="36" t="s">
         <v>2</v>
       </c>
@@ -7284,7 +7284,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="48"/>
+      <c r="A85" s="50"/>
       <c r="B85" s="36" t="s">
         <v>3</v>
       </c>
@@ -7341,7 +7341,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="48"/>
+      <c r="A86" s="50"/>
       <c r="B86" s="36" t="s">
         <v>4</v>
       </c>
@@ -7398,7 +7398,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="48"/>
+      <c r="A87" s="50"/>
       <c r="B87" s="36" t="s">
         <v>5</v>
       </c>
@@ -7455,7 +7455,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="48"/>
+      <c r="A88" s="50"/>
       <c r="B88" s="36" t="s">
         <v>6</v>
       </c>
@@ -7512,7 +7512,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="48"/>
+      <c r="A89" s="50"/>
       <c r="B89" s="36" t="s">
         <v>7</v>
       </c>
@@ -7569,7 +7569,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="48"/>
+      <c r="A90" s="50"/>
       <c r="B90" s="36" t="s">
         <v>8</v>
       </c>
@@ -7626,7 +7626,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="48"/>
+      <c r="A91" s="50"/>
       <c r="B91" s="36" t="s">
         <v>9</v>
       </c>
@@ -7683,7 +7683,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="48"/>
+      <c r="A92" s="50"/>
       <c r="B92" s="36" t="s">
         <v>10</v>
       </c>
@@ -7740,7 +7740,7 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="48"/>
+      <c r="A93" s="50"/>
       <c r="B93" s="36" t="s">
         <v>11</v>
       </c>
@@ -7797,7 +7797,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="48"/>
+      <c r="A94" s="50"/>
       <c r="B94" s="36" t="s">
         <v>12</v>
       </c>
@@ -7854,7 +7854,7 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="48"/>
+      <c r="A95" s="50"/>
       <c r="B95" s="36" t="s">
         <v>13</v>
       </c>
@@ -7911,7 +7911,7 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="48"/>
+      <c r="A96" s="50"/>
       <c r="B96" s="36" t="s">
         <v>14</v>
       </c>
@@ -7968,7 +7968,7 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="48"/>
+      <c r="A97" s="50"/>
       <c r="B97" s="36" t="s">
         <v>15</v>
       </c>
@@ -8025,7 +8025,7 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="48" t="s">
+      <c r="A98" s="50" t="s">
         <v>76</v>
       </c>
       <c r="B98" s="36" t="s">
@@ -8084,7 +8084,7 @@
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="48"/>
+      <c r="A99" s="50"/>
       <c r="B99" s="36" t="s">
         <v>1</v>
       </c>
@@ -8141,7 +8141,7 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="48"/>
+      <c r="A100" s="50"/>
       <c r="B100" s="36" t="s">
         <v>2</v>
       </c>
@@ -8198,7 +8198,7 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="48"/>
+      <c r="A101" s="50"/>
       <c r="B101" s="36" t="s">
         <v>3</v>
       </c>
@@ -8255,7 +8255,7 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="48"/>
+      <c r="A102" s="50"/>
       <c r="B102" s="36" t="s">
         <v>4</v>
       </c>
@@ -8312,7 +8312,7 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="48"/>
+      <c r="A103" s="50"/>
       <c r="B103" s="36" t="s">
         <v>5</v>
       </c>
@@ -8369,7 +8369,7 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="48"/>
+      <c r="A104" s="50"/>
       <c r="B104" s="36" t="s">
         <v>6</v>
       </c>
@@ -8426,7 +8426,7 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="48"/>
+      <c r="A105" s="50"/>
       <c r="B105" s="36" t="s">
         <v>7</v>
       </c>
@@ -8483,7 +8483,7 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="48"/>
+      <c r="A106" s="50"/>
       <c r="B106" s="36" t="s">
         <v>8</v>
       </c>
@@ -8540,7 +8540,7 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="48"/>
+      <c r="A107" s="50"/>
       <c r="B107" s="36" t="s">
         <v>9</v>
       </c>
@@ -8597,7 +8597,7 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="48"/>
+      <c r="A108" s="50"/>
       <c r="B108" s="36" t="s">
         <v>10</v>
       </c>
@@ -8654,7 +8654,7 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="48"/>
+      <c r="A109" s="50"/>
       <c r="B109" s="36" t="s">
         <v>11</v>
       </c>
@@ -8711,7 +8711,7 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="48"/>
+      <c r="A110" s="50"/>
       <c r="B110" s="36" t="s">
         <v>12</v>
       </c>
@@ -8768,7 +8768,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="48"/>
+      <c r="A111" s="50"/>
       <c r="B111" s="36" t="s">
         <v>13</v>
       </c>
@@ -8825,7 +8825,7 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="48"/>
+      <c r="A112" s="50"/>
       <c r="B112" s="36" t="s">
         <v>14</v>
       </c>
@@ -8882,7 +8882,7 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="48"/>
+      <c r="A113" s="50"/>
       <c r="B113" s="36" t="s">
         <v>15</v>
       </c>
@@ -8939,7 +8939,7 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A114" s="48" t="s">
+      <c r="A114" s="50" t="s">
         <v>77</v>
       </c>
       <c r="B114" s="36" t="s">
@@ -8998,7 +8998,7 @@
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A115" s="48"/>
+      <c r="A115" s="50"/>
       <c r="B115" s="36" t="s">
         <v>1</v>
       </c>
@@ -9055,7 +9055,7 @@
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A116" s="48"/>
+      <c r="A116" s="50"/>
       <c r="B116" s="36" t="s">
         <v>2</v>
       </c>
@@ -9112,7 +9112,7 @@
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A117" s="48"/>
+      <c r="A117" s="50"/>
       <c r="B117" s="36" t="s">
         <v>3</v>
       </c>
@@ -9169,7 +9169,7 @@
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A118" s="48"/>
+      <c r="A118" s="50"/>
       <c r="B118" s="36" t="s">
         <v>4</v>
       </c>
@@ -9226,7 +9226,7 @@
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A119" s="48"/>
+      <c r="A119" s="50"/>
       <c r="B119" s="36" t="s">
         <v>5</v>
       </c>
@@ -9283,7 +9283,7 @@
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A120" s="48"/>
+      <c r="A120" s="50"/>
       <c r="B120" s="36" t="s">
         <v>6</v>
       </c>
@@ -9340,7 +9340,7 @@
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A121" s="48"/>
+      <c r="A121" s="50"/>
       <c r="B121" s="36" t="s">
         <v>7</v>
       </c>
@@ -9397,7 +9397,7 @@
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A122" s="48"/>
+      <c r="A122" s="50"/>
       <c r="B122" s="36" t="s">
         <v>8</v>
       </c>
@@ -9454,7 +9454,7 @@
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A123" s="48"/>
+      <c r="A123" s="50"/>
       <c r="B123" s="36" t="s">
         <v>9</v>
       </c>
@@ -9511,7 +9511,7 @@
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A124" s="48"/>
+      <c r="A124" s="50"/>
       <c r="B124" s="36" t="s">
         <v>10</v>
       </c>
@@ -9568,7 +9568,7 @@
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A125" s="48"/>
+      <c r="A125" s="50"/>
       <c r="B125" s="36" t="s">
         <v>11</v>
       </c>
@@ -9625,7 +9625,7 @@
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A126" s="48"/>
+      <c r="A126" s="50"/>
       <c r="B126" s="36" t="s">
         <v>12</v>
       </c>
@@ -9682,7 +9682,7 @@
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A127" s="48"/>
+      <c r="A127" s="50"/>
       <c r="B127" s="36" t="s">
         <v>13</v>
       </c>
@@ -9739,7 +9739,7 @@
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A128" s="48"/>
+      <c r="A128" s="50"/>
       <c r="B128" s="36" t="s">
         <v>14</v>
       </c>
@@ -9796,7 +9796,7 @@
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A129" s="48"/>
+      <c r="A129" s="50"/>
       <c r="B129" s="36" t="s">
         <v>15</v>
       </c>
@@ -9853,7 +9853,7 @@
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A130" s="48" t="s">
+      <c r="A130" s="50" t="s">
         <v>78</v>
       </c>
       <c r="B130" s="36" t="s">
@@ -9912,7 +9912,7 @@
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A131" s="48"/>
+      <c r="A131" s="50"/>
       <c r="B131" s="36" t="s">
         <v>1</v>
       </c>
@@ -9969,7 +9969,7 @@
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A132" s="48"/>
+      <c r="A132" s="50"/>
       <c r="B132" s="36" t="s">
         <v>2</v>
       </c>
@@ -10026,7 +10026,7 @@
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A133" s="48"/>
+      <c r="A133" s="50"/>
       <c r="B133" s="36" t="s">
         <v>3</v>
       </c>
@@ -10083,7 +10083,7 @@
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A134" s="48"/>
+      <c r="A134" s="50"/>
       <c r="B134" s="36" t="s">
         <v>4</v>
       </c>
@@ -10140,7 +10140,7 @@
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A135" s="48"/>
+      <c r="A135" s="50"/>
       <c r="B135" s="36" t="s">
         <v>5</v>
       </c>
@@ -10197,7 +10197,7 @@
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A136" s="48"/>
+      <c r="A136" s="50"/>
       <c r="B136" s="36" t="s">
         <v>6</v>
       </c>
@@ -10254,7 +10254,7 @@
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A137" s="48"/>
+      <c r="A137" s="50"/>
       <c r="B137" s="36" t="s">
         <v>7</v>
       </c>
@@ -10311,7 +10311,7 @@
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A138" s="48"/>
+      <c r="A138" s="50"/>
       <c r="B138" s="36" t="s">
         <v>8</v>
       </c>
@@ -10368,7 +10368,7 @@
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A139" s="48"/>
+      <c r="A139" s="50"/>
       <c r="B139" s="36" t="s">
         <v>9</v>
       </c>
@@ -10425,7 +10425,7 @@
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A140" s="48"/>
+      <c r="A140" s="50"/>
       <c r="B140" s="36" t="s">
         <v>10</v>
       </c>
@@ -10482,7 +10482,7 @@
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A141" s="48"/>
+      <c r="A141" s="50"/>
       <c r="B141" s="36" t="s">
         <v>11</v>
       </c>
@@ -10539,7 +10539,7 @@
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A142" s="48"/>
+      <c r="A142" s="50"/>
       <c r="B142" s="36" t="s">
         <v>12</v>
       </c>
@@ -10596,7 +10596,7 @@
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A143" s="48"/>
+      <c r="A143" s="50"/>
       <c r="B143" s="36" t="s">
         <v>13</v>
       </c>
@@ -10653,7 +10653,7 @@
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A144" s="48"/>
+      <c r="A144" s="50"/>
       <c r="B144" s="36" t="s">
         <v>14</v>
       </c>
@@ -10710,7 +10710,7 @@
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A145" s="48"/>
+      <c r="A145" s="50"/>
       <c r="B145" s="36" t="s">
         <v>15</v>
       </c>
@@ -10767,7 +10767,7 @@
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A146" s="48" t="s">
+      <c r="A146" s="50" t="s">
         <v>79</v>
       </c>
       <c r="B146" s="36" t="s">
@@ -10826,7 +10826,7 @@
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A147" s="48"/>
+      <c r="A147" s="50"/>
       <c r="B147" s="36" t="s">
         <v>1</v>
       </c>
@@ -10883,7 +10883,7 @@
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A148" s="48"/>
+      <c r="A148" s="50"/>
       <c r="B148" s="36" t="s">
         <v>2</v>
       </c>
@@ -10940,7 +10940,7 @@
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A149" s="48"/>
+      <c r="A149" s="50"/>
       <c r="B149" s="36" t="s">
         <v>3</v>
       </c>
@@ -10997,7 +10997,7 @@
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A150" s="48"/>
+      <c r="A150" s="50"/>
       <c r="B150" s="36" t="s">
         <v>4</v>
       </c>
@@ -11054,7 +11054,7 @@
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A151" s="48"/>
+      <c r="A151" s="50"/>
       <c r="B151" s="36" t="s">
         <v>5</v>
       </c>
@@ -11111,7 +11111,7 @@
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A152" s="48"/>
+      <c r="A152" s="50"/>
       <c r="B152" s="36" t="s">
         <v>6</v>
       </c>
@@ -11168,7 +11168,7 @@
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A153" s="48"/>
+      <c r="A153" s="50"/>
       <c r="B153" s="36" t="s">
         <v>7</v>
       </c>
@@ -11225,7 +11225,7 @@
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A154" s="48"/>
+      <c r="A154" s="50"/>
       <c r="B154" s="36" t="s">
         <v>8</v>
       </c>
@@ -11282,7 +11282,7 @@
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A155" s="48"/>
+      <c r="A155" s="50"/>
       <c r="B155" s="36" t="s">
         <v>9</v>
       </c>
@@ -11339,7 +11339,7 @@
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A156" s="48"/>
+      <c r="A156" s="50"/>
       <c r="B156" s="36" t="s">
         <v>10</v>
       </c>
@@ -11396,7 +11396,7 @@
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A157" s="48"/>
+      <c r="A157" s="50"/>
       <c r="B157" s="36" t="s">
         <v>11</v>
       </c>
@@ -11453,7 +11453,7 @@
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A158" s="48"/>
+      <c r="A158" s="50"/>
       <c r="B158" s="36" t="s">
         <v>12</v>
       </c>
@@ -11510,7 +11510,7 @@
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A159" s="48"/>
+      <c r="A159" s="50"/>
       <c r="B159" s="36" t="s">
         <v>13</v>
       </c>
@@ -11567,7 +11567,7 @@
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A160" s="48"/>
+      <c r="A160" s="50"/>
       <c r="B160" s="36" t="s">
         <v>14</v>
       </c>
@@ -11624,7 +11624,7 @@
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A161" s="48"/>
+      <c r="A161" s="50"/>
       <c r="B161" s="36" t="s">
         <v>15</v>
       </c>
@@ -11681,7 +11681,7 @@
       </c>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A162" s="48" t="s">
+      <c r="A162" s="50" t="s">
         <v>80</v>
       </c>
       <c r="B162" s="36" t="s">
@@ -11740,7 +11740,7 @@
       </c>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A163" s="48"/>
+      <c r="A163" s="50"/>
       <c r="B163" s="36" t="s">
         <v>1</v>
       </c>
@@ -11797,7 +11797,7 @@
       </c>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A164" s="48"/>
+      <c r="A164" s="50"/>
       <c r="B164" s="36" t="s">
         <v>2</v>
       </c>
@@ -11854,7 +11854,7 @@
       </c>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A165" s="48"/>
+      <c r="A165" s="50"/>
       <c r="B165" s="36" t="s">
         <v>3</v>
       </c>
@@ -11911,7 +11911,7 @@
       </c>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A166" s="48"/>
+      <c r="A166" s="50"/>
       <c r="B166" s="36" t="s">
         <v>4</v>
       </c>
@@ -11968,7 +11968,7 @@
       </c>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A167" s="48"/>
+      <c r="A167" s="50"/>
       <c r="B167" s="36" t="s">
         <v>5</v>
       </c>
@@ -12025,7 +12025,7 @@
       </c>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A168" s="48"/>
+      <c r="A168" s="50"/>
       <c r="B168" s="36" t="s">
         <v>6</v>
       </c>
@@ -12082,7 +12082,7 @@
       </c>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A169" s="48"/>
+      <c r="A169" s="50"/>
       <c r="B169" s="36" t="s">
         <v>7</v>
       </c>
@@ -12139,7 +12139,7 @@
       </c>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A170" s="48"/>
+      <c r="A170" s="50"/>
       <c r="B170" s="36" t="s">
         <v>8</v>
       </c>
@@ -12196,7 +12196,7 @@
       </c>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A171" s="48"/>
+      <c r="A171" s="50"/>
       <c r="B171" s="36" t="s">
         <v>9</v>
       </c>
@@ -12253,7 +12253,7 @@
       </c>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A172" s="48"/>
+      <c r="A172" s="50"/>
       <c r="B172" s="36" t="s">
         <v>10</v>
       </c>
@@ -12310,7 +12310,7 @@
       </c>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A173" s="48"/>
+      <c r="A173" s="50"/>
       <c r="B173" s="36" t="s">
         <v>11</v>
       </c>
@@ -12367,7 +12367,7 @@
       </c>
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A174" s="48"/>
+      <c r="A174" s="50"/>
       <c r="B174" s="36" t="s">
         <v>12</v>
       </c>
@@ -12424,7 +12424,7 @@
       </c>
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A175" s="48"/>
+      <c r="A175" s="50"/>
       <c r="B175" s="36" t="s">
         <v>13</v>
       </c>
@@ -12481,7 +12481,7 @@
       </c>
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A176" s="48"/>
+      <c r="A176" s="50"/>
       <c r="B176" s="36" t="s">
         <v>14</v>
       </c>
@@ -12538,7 +12538,7 @@
       </c>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A177" s="48"/>
+      <c r="A177" s="50"/>
       <c r="B177" s="36" t="s">
         <v>15</v>
       </c>
@@ -12596,17 +12596,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="A34:A49"/>
-    <mergeCell ref="A50:A65"/>
-    <mergeCell ref="A66:A81"/>
     <mergeCell ref="A162:A177"/>
     <mergeCell ref="A82:A97"/>
     <mergeCell ref="A98:A113"/>
     <mergeCell ref="A114:A129"/>
     <mergeCell ref="A130:A145"/>
     <mergeCell ref="A146:A161"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="A34:A49"/>
+    <mergeCell ref="A50:A65"/>
+    <mergeCell ref="A66:A81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12616,8 +12616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S177"/>
   <sheetViews>
-    <sheetView topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="A178" sqref="A178:S1985"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12682,7 +12682,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="36" t="s">
@@ -12741,7 +12741,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="36" t="s">
         <v>1</v>
       </c>
@@ -12798,7 +12798,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="36" t="s">
         <v>2</v>
       </c>
@@ -12855,7 +12855,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="36" t="s">
         <v>3</v>
       </c>
@@ -12912,7 +12912,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="36" t="s">
         <v>4</v>
       </c>
@@ -12969,7 +12969,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="36" t="s">
         <v>5</v>
       </c>
@@ -13026,7 +13026,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="36" t="s">
         <v>6</v>
       </c>
@@ -13083,7 +13083,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="36" t="s">
         <v>7</v>
       </c>
@@ -13140,7 +13140,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="36" t="s">
         <v>8</v>
       </c>
@@ -13197,7 +13197,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="36" t="s">
         <v>9</v>
       </c>
@@ -13254,7 +13254,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="36" t="s">
         <v>10</v>
       </c>
@@ -13311,7 +13311,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="36" t="s">
         <v>11</v>
       </c>
@@ -13368,7 +13368,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="36" t="s">
         <v>12</v>
       </c>
@@ -13425,7 +13425,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="36" t="s">
         <v>13</v>
       </c>
@@ -13482,7 +13482,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="36" t="s">
         <v>14</v>
       </c>
@@ -13539,7 +13539,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="36" t="s">
         <v>15</v>
       </c>
@@ -13596,7 +13596,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="50" t="s">
         <v>71</v>
       </c>
       <c r="B18" s="36" t="s">
@@ -13655,7 +13655,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="36" t="s">
         <v>1</v>
       </c>
@@ -13712,7 +13712,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="36" t="s">
         <v>2</v>
       </c>
@@ -13769,7 +13769,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="36" t="s">
         <v>3</v>
       </c>
@@ -13826,7 +13826,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="36" t="s">
         <v>4</v>
       </c>
@@ -13883,7 +13883,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="36" t="s">
         <v>5</v>
       </c>
@@ -13940,7 +13940,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="36" t="s">
         <v>6</v>
       </c>
@@ -13997,7 +13997,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="36" t="s">
         <v>7</v>
       </c>
@@ -14054,7 +14054,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="36" t="s">
         <v>8</v>
       </c>
@@ -14111,7 +14111,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="36" t="s">
         <v>9</v>
       </c>
@@ -14168,7 +14168,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="36" t="s">
         <v>10</v>
       </c>
@@ -14225,7 +14225,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="36" t="s">
         <v>11</v>
       </c>
@@ -14282,7 +14282,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="36" t="s">
         <v>12</v>
       </c>
@@ -14339,7 +14339,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="36" t="s">
         <v>13</v>
       </c>
@@ -14396,7 +14396,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="36" t="s">
         <v>14</v>
       </c>
@@ -14453,7 +14453,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="36" t="s">
         <v>15</v>
       </c>
@@ -14510,7 +14510,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="50" t="s">
         <v>72</v>
       </c>
       <c r="B34" s="36" t="s">
@@ -14569,7 +14569,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="36" t="s">
         <v>1</v>
       </c>
@@ -14626,7 +14626,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="36" t="s">
         <v>2</v>
       </c>
@@ -14683,7 +14683,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="36" t="s">
         <v>3</v>
       </c>
@@ -14740,7 +14740,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
+      <c r="A38" s="50"/>
       <c r="B38" s="36" t="s">
         <v>4</v>
       </c>
@@ -14797,7 +14797,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
+      <c r="A39" s="50"/>
       <c r="B39" s="36" t="s">
         <v>5</v>
       </c>
@@ -14854,7 +14854,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
+      <c r="A40" s="50"/>
       <c r="B40" s="36" t="s">
         <v>6</v>
       </c>
@@ -14911,7 +14911,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
+      <c r="A41" s="50"/>
       <c r="B41" s="36" t="s">
         <v>7</v>
       </c>
@@ -14968,7 +14968,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
+      <c r="A42" s="50"/>
       <c r="B42" s="36" t="s">
         <v>8</v>
       </c>
@@ -15025,7 +15025,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
+      <c r="A43" s="50"/>
       <c r="B43" s="36" t="s">
         <v>9</v>
       </c>
@@ -15082,7 +15082,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
+      <c r="A44" s="50"/>
       <c r="B44" s="36" t="s">
         <v>10</v>
       </c>
@@ -15139,7 +15139,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
+      <c r="A45" s="50"/>
       <c r="B45" s="36" t="s">
         <v>11</v>
       </c>
@@ -15196,7 +15196,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
+      <c r="A46" s="50"/>
       <c r="B46" s="36" t="s">
         <v>12</v>
       </c>
@@ -15253,7 +15253,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="48"/>
+      <c r="A47" s="50"/>
       <c r="B47" s="36" t="s">
         <v>13</v>
       </c>
@@ -15310,7 +15310,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="48"/>
+      <c r="A48" s="50"/>
       <c r="B48" s="36" t="s">
         <v>14</v>
       </c>
@@ -15367,7 +15367,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
+      <c r="A49" s="50"/>
       <c r="B49" s="36" t="s">
         <v>15</v>
       </c>
@@ -15424,7 +15424,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="48" t="s">
+      <c r="A50" s="50" t="s">
         <v>73</v>
       </c>
       <c r="B50" s="36" t="s">
@@ -15483,7 +15483,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="48"/>
+      <c r="A51" s="50"/>
       <c r="B51" s="36" t="s">
         <v>1</v>
       </c>
@@ -15540,7 +15540,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="48"/>
+      <c r="A52" s="50"/>
       <c r="B52" s="36" t="s">
         <v>2</v>
       </c>
@@ -15597,7 +15597,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="48"/>
+      <c r="A53" s="50"/>
       <c r="B53" s="36" t="s">
         <v>3</v>
       </c>
@@ -15654,7 +15654,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="48"/>
+      <c r="A54" s="50"/>
       <c r="B54" s="36" t="s">
         <v>4</v>
       </c>
@@ -15711,7 +15711,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="48"/>
+      <c r="A55" s="50"/>
       <c r="B55" s="36" t="s">
         <v>5</v>
       </c>
@@ -15768,7 +15768,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="48"/>
+      <c r="A56" s="50"/>
       <c r="B56" s="36" t="s">
         <v>6</v>
       </c>
@@ -15825,7 +15825,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="48"/>
+      <c r="A57" s="50"/>
       <c r="B57" s="36" t="s">
         <v>7</v>
       </c>
@@ -15882,7 +15882,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="48"/>
+      <c r="A58" s="50"/>
       <c r="B58" s="36" t="s">
         <v>8</v>
       </c>
@@ -15939,7 +15939,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="48"/>
+      <c r="A59" s="50"/>
       <c r="B59" s="36" t="s">
         <v>9</v>
       </c>
@@ -15996,7 +15996,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="48"/>
+      <c r="A60" s="50"/>
       <c r="B60" s="36" t="s">
         <v>10</v>
       </c>
@@ -16053,7 +16053,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="48"/>
+      <c r="A61" s="50"/>
       <c r="B61" s="36" t="s">
         <v>11</v>
       </c>
@@ -16110,7 +16110,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="48"/>
+      <c r="A62" s="50"/>
       <c r="B62" s="36" t="s">
         <v>12</v>
       </c>
@@ -16167,7 +16167,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="48"/>
+      <c r="A63" s="50"/>
       <c r="B63" s="36" t="s">
         <v>13</v>
       </c>
@@ -16224,7 +16224,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="48"/>
+      <c r="A64" s="50"/>
       <c r="B64" s="36" t="s">
         <v>14</v>
       </c>
@@ -16281,7 +16281,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="48"/>
+      <c r="A65" s="50"/>
       <c r="B65" s="36" t="s">
         <v>15</v>
       </c>
@@ -16338,7 +16338,7 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="48" t="s">
+      <c r="A66" s="50" t="s">
         <v>74</v>
       </c>
       <c r="B66" s="36" t="s">
@@ -16397,7 +16397,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="48"/>
+      <c r="A67" s="50"/>
       <c r="B67" s="36" t="s">
         <v>1</v>
       </c>
@@ -16454,7 +16454,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="48"/>
+      <c r="A68" s="50"/>
       <c r="B68" s="36" t="s">
         <v>2</v>
       </c>
@@ -16511,7 +16511,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="48"/>
+      <c r="A69" s="50"/>
       <c r="B69" s="36" t="s">
         <v>3</v>
       </c>
@@ -16568,7 +16568,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="48"/>
+      <c r="A70" s="50"/>
       <c r="B70" s="36" t="s">
         <v>4</v>
       </c>
@@ -16625,7 +16625,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="48"/>
+      <c r="A71" s="50"/>
       <c r="B71" s="36" t="s">
         <v>5</v>
       </c>
@@ -16682,7 +16682,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="48"/>
+      <c r="A72" s="50"/>
       <c r="B72" s="36" t="s">
         <v>6</v>
       </c>
@@ -16739,7 +16739,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="48"/>
+      <c r="A73" s="50"/>
       <c r="B73" s="36" t="s">
         <v>7</v>
       </c>
@@ -16796,7 +16796,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="48"/>
+      <c r="A74" s="50"/>
       <c r="B74" s="36" t="s">
         <v>8</v>
       </c>
@@ -16853,7 +16853,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="48"/>
+      <c r="A75" s="50"/>
       <c r="B75" s="36" t="s">
         <v>9</v>
       </c>
@@ -16910,7 +16910,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="48"/>
+      <c r="A76" s="50"/>
       <c r="B76" s="36" t="s">
         <v>10</v>
       </c>
@@ -16967,7 +16967,7 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="48"/>
+      <c r="A77" s="50"/>
       <c r="B77" s="36" t="s">
         <v>11</v>
       </c>
@@ -17024,7 +17024,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="48"/>
+      <c r="A78" s="50"/>
       <c r="B78" s="36" t="s">
         <v>12</v>
       </c>
@@ -17081,7 +17081,7 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="48"/>
+      <c r="A79" s="50"/>
       <c r="B79" s="36" t="s">
         <v>13</v>
       </c>
@@ -17138,7 +17138,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="48"/>
+      <c r="A80" s="50"/>
       <c r="B80" s="36" t="s">
         <v>14</v>
       </c>
@@ -17195,7 +17195,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="48"/>
+      <c r="A81" s="50"/>
       <c r="B81" s="36" t="s">
         <v>15</v>
       </c>
@@ -17252,7 +17252,7 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="48" t="s">
+      <c r="A82" s="50" t="s">
         <v>75</v>
       </c>
       <c r="B82" s="36" t="s">
@@ -17311,7 +17311,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="48"/>
+      <c r="A83" s="50"/>
       <c r="B83" s="36" t="s">
         <v>1</v>
       </c>
@@ -17368,7 +17368,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="48"/>
+      <c r="A84" s="50"/>
       <c r="B84" s="36" t="s">
         <v>2</v>
       </c>
@@ -17425,7 +17425,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="48"/>
+      <c r="A85" s="50"/>
       <c r="B85" s="36" t="s">
         <v>3</v>
       </c>
@@ -17482,7 +17482,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="48"/>
+      <c r="A86" s="50"/>
       <c r="B86" s="36" t="s">
         <v>4</v>
       </c>
@@ -17539,7 +17539,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="48"/>
+      <c r="A87" s="50"/>
       <c r="B87" s="36" t="s">
         <v>5</v>
       </c>
@@ -17596,7 +17596,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="48"/>
+      <c r="A88" s="50"/>
       <c r="B88" s="36" t="s">
         <v>6</v>
       </c>
@@ -17653,7 +17653,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="48"/>
+      <c r="A89" s="50"/>
       <c r="B89" s="36" t="s">
         <v>7</v>
       </c>
@@ -17710,7 +17710,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="48"/>
+      <c r="A90" s="50"/>
       <c r="B90" s="36" t="s">
         <v>8</v>
       </c>
@@ -17767,7 +17767,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="48"/>
+      <c r="A91" s="50"/>
       <c r="B91" s="36" t="s">
         <v>9</v>
       </c>
@@ -17824,7 +17824,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="48"/>
+      <c r="A92" s="50"/>
       <c r="B92" s="36" t="s">
         <v>10</v>
       </c>
@@ -17881,7 +17881,7 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="48"/>
+      <c r="A93" s="50"/>
       <c r="B93" s="36" t="s">
         <v>11</v>
       </c>
@@ -17938,7 +17938,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="48"/>
+      <c r="A94" s="50"/>
       <c r="B94" s="36" t="s">
         <v>12</v>
       </c>
@@ -17995,7 +17995,7 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="48"/>
+      <c r="A95" s="50"/>
       <c r="B95" s="36" t="s">
         <v>13</v>
       </c>
@@ -18052,7 +18052,7 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="48"/>
+      <c r="A96" s="50"/>
       <c r="B96" s="36" t="s">
         <v>14</v>
       </c>
@@ -18109,7 +18109,7 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="48"/>
+      <c r="A97" s="50"/>
       <c r="B97" s="36" t="s">
         <v>15</v>
       </c>
@@ -18166,7 +18166,7 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="48" t="s">
+      <c r="A98" s="50" t="s">
         <v>76</v>
       </c>
       <c r="B98" s="36" t="s">
@@ -18225,7 +18225,7 @@
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="48"/>
+      <c r="A99" s="50"/>
       <c r="B99" s="36" t="s">
         <v>1</v>
       </c>
@@ -18282,7 +18282,7 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="48"/>
+      <c r="A100" s="50"/>
       <c r="B100" s="36" t="s">
         <v>2</v>
       </c>
@@ -18339,7 +18339,7 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="48"/>
+      <c r="A101" s="50"/>
       <c r="B101" s="36" t="s">
         <v>3</v>
       </c>
@@ -18396,7 +18396,7 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="48"/>
+      <c r="A102" s="50"/>
       <c r="B102" s="36" t="s">
         <v>4</v>
       </c>
@@ -18453,7 +18453,7 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="48"/>
+      <c r="A103" s="50"/>
       <c r="B103" s="36" t="s">
         <v>5</v>
       </c>
@@ -18510,7 +18510,7 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="48"/>
+      <c r="A104" s="50"/>
       <c r="B104" s="36" t="s">
         <v>6</v>
       </c>
@@ -18567,7 +18567,7 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="48"/>
+      <c r="A105" s="50"/>
       <c r="B105" s="36" t="s">
         <v>7</v>
       </c>
@@ -18624,7 +18624,7 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="48"/>
+      <c r="A106" s="50"/>
       <c r="B106" s="36" t="s">
         <v>8</v>
       </c>
@@ -18681,7 +18681,7 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="48"/>
+      <c r="A107" s="50"/>
       <c r="B107" s="36" t="s">
         <v>9</v>
       </c>
@@ -18738,7 +18738,7 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="48"/>
+      <c r="A108" s="50"/>
       <c r="B108" s="36" t="s">
         <v>10</v>
       </c>
@@ -18795,7 +18795,7 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="48"/>
+      <c r="A109" s="50"/>
       <c r="B109" s="36" t="s">
         <v>11</v>
       </c>
@@ -18852,7 +18852,7 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="48"/>
+      <c r="A110" s="50"/>
       <c r="B110" s="36" t="s">
         <v>12</v>
       </c>
@@ -18909,7 +18909,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="48"/>
+      <c r="A111" s="50"/>
       <c r="B111" s="36" t="s">
         <v>13</v>
       </c>
@@ -18966,7 +18966,7 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="48"/>
+      <c r="A112" s="50"/>
       <c r="B112" s="36" t="s">
         <v>14</v>
       </c>
@@ -19023,7 +19023,7 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="48"/>
+      <c r="A113" s="50"/>
       <c r="B113" s="36" t="s">
         <v>15</v>
       </c>
@@ -19080,7 +19080,7 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A114" s="48" t="s">
+      <c r="A114" s="50" t="s">
         <v>77</v>
       </c>
       <c r="B114" s="36" t="s">
@@ -19139,7 +19139,7 @@
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A115" s="48"/>
+      <c r="A115" s="50"/>
       <c r="B115" s="36" t="s">
         <v>1</v>
       </c>
@@ -19196,7 +19196,7 @@
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A116" s="48"/>
+      <c r="A116" s="50"/>
       <c r="B116" s="36" t="s">
         <v>2</v>
       </c>
@@ -19253,7 +19253,7 @@
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A117" s="48"/>
+      <c r="A117" s="50"/>
       <c r="B117" s="36" t="s">
         <v>3</v>
       </c>
@@ -19310,7 +19310,7 @@
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A118" s="48"/>
+      <c r="A118" s="50"/>
       <c r="B118" s="36" t="s">
         <v>4</v>
       </c>
@@ -19367,7 +19367,7 @@
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A119" s="48"/>
+      <c r="A119" s="50"/>
       <c r="B119" s="36" t="s">
         <v>5</v>
       </c>
@@ -19424,7 +19424,7 @@
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A120" s="48"/>
+      <c r="A120" s="50"/>
       <c r="B120" s="36" t="s">
         <v>6</v>
       </c>
@@ -19481,7 +19481,7 @@
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A121" s="48"/>
+      <c r="A121" s="50"/>
       <c r="B121" s="36" t="s">
         <v>7</v>
       </c>
@@ -19538,7 +19538,7 @@
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A122" s="48"/>
+      <c r="A122" s="50"/>
       <c r="B122" s="36" t="s">
         <v>8</v>
       </c>
@@ -19595,7 +19595,7 @@
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A123" s="48"/>
+      <c r="A123" s="50"/>
       <c r="B123" s="36" t="s">
         <v>9</v>
       </c>
@@ -19652,7 +19652,7 @@
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A124" s="48"/>
+      <c r="A124" s="50"/>
       <c r="B124" s="36" t="s">
         <v>10</v>
       </c>
@@ -19709,7 +19709,7 @@
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A125" s="48"/>
+      <c r="A125" s="50"/>
       <c r="B125" s="36" t="s">
         <v>11</v>
       </c>
@@ -19766,7 +19766,7 @@
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A126" s="48"/>
+      <c r="A126" s="50"/>
       <c r="B126" s="36" t="s">
         <v>12</v>
       </c>
@@ -19823,7 +19823,7 @@
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A127" s="48"/>
+      <c r="A127" s="50"/>
       <c r="B127" s="36" t="s">
         <v>13</v>
       </c>
@@ -19880,7 +19880,7 @@
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A128" s="48"/>
+      <c r="A128" s="50"/>
       <c r="B128" s="36" t="s">
         <v>14</v>
       </c>
@@ -19937,7 +19937,7 @@
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A129" s="48"/>
+      <c r="A129" s="50"/>
       <c r="B129" s="36" t="s">
         <v>15</v>
       </c>
@@ -19994,7 +19994,7 @@
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A130" s="48" t="s">
+      <c r="A130" s="50" t="s">
         <v>78</v>
       </c>
       <c r="B130" s="36" t="s">
@@ -20053,7 +20053,7 @@
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A131" s="48"/>
+      <c r="A131" s="50"/>
       <c r="B131" s="36" t="s">
         <v>1</v>
       </c>
@@ -20110,7 +20110,7 @@
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A132" s="48"/>
+      <c r="A132" s="50"/>
       <c r="B132" s="36" t="s">
         <v>2</v>
       </c>
@@ -20167,7 +20167,7 @@
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A133" s="48"/>
+      <c r="A133" s="50"/>
       <c r="B133" s="36" t="s">
         <v>3</v>
       </c>
@@ -20224,7 +20224,7 @@
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A134" s="48"/>
+      <c r="A134" s="50"/>
       <c r="B134" s="36" t="s">
         <v>4</v>
       </c>
@@ -20281,7 +20281,7 @@
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A135" s="48"/>
+      <c r="A135" s="50"/>
       <c r="B135" s="36" t="s">
         <v>5</v>
       </c>
@@ -20338,7 +20338,7 @@
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A136" s="48"/>
+      <c r="A136" s="50"/>
       <c r="B136" s="36" t="s">
         <v>6</v>
       </c>
@@ -20395,7 +20395,7 @@
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A137" s="48"/>
+      <c r="A137" s="50"/>
       <c r="B137" s="36" t="s">
         <v>7</v>
       </c>
@@ -20452,7 +20452,7 @@
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A138" s="48"/>
+      <c r="A138" s="50"/>
       <c r="B138" s="36" t="s">
         <v>8</v>
       </c>
@@ -20509,7 +20509,7 @@
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A139" s="48"/>
+      <c r="A139" s="50"/>
       <c r="B139" s="36" t="s">
         <v>9</v>
       </c>
@@ -20566,7 +20566,7 @@
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A140" s="48"/>
+      <c r="A140" s="50"/>
       <c r="B140" s="36" t="s">
         <v>10</v>
       </c>
@@ -20623,7 +20623,7 @@
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A141" s="48"/>
+      <c r="A141" s="50"/>
       <c r="B141" s="36" t="s">
         <v>11</v>
       </c>
@@ -20680,7 +20680,7 @@
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A142" s="48"/>
+      <c r="A142" s="50"/>
       <c r="B142" s="36" t="s">
         <v>12</v>
       </c>
@@ -20737,7 +20737,7 @@
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A143" s="48"/>
+      <c r="A143" s="50"/>
       <c r="B143" s="36" t="s">
         <v>13</v>
       </c>
@@ -20794,7 +20794,7 @@
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A144" s="48"/>
+      <c r="A144" s="50"/>
       <c r="B144" s="36" t="s">
         <v>14</v>
       </c>
@@ -20851,7 +20851,7 @@
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A145" s="48"/>
+      <c r="A145" s="50"/>
       <c r="B145" s="36" t="s">
         <v>15</v>
       </c>
@@ -20908,7 +20908,7 @@
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A146" s="48" t="s">
+      <c r="A146" s="50" t="s">
         <v>79</v>
       </c>
       <c r="B146" s="36" t="s">
@@ -20967,7 +20967,7 @@
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A147" s="48"/>
+      <c r="A147" s="50"/>
       <c r="B147" s="36" t="s">
         <v>1</v>
       </c>
@@ -21024,7 +21024,7 @@
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A148" s="48"/>
+      <c r="A148" s="50"/>
       <c r="B148" s="36" t="s">
         <v>2</v>
       </c>
@@ -21081,7 +21081,7 @@
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A149" s="48"/>
+      <c r="A149" s="50"/>
       <c r="B149" s="36" t="s">
         <v>3</v>
       </c>
@@ -21138,7 +21138,7 @@
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A150" s="48"/>
+      <c r="A150" s="50"/>
       <c r="B150" s="36" t="s">
         <v>4</v>
       </c>
@@ -21195,7 +21195,7 @@
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A151" s="48"/>
+      <c r="A151" s="50"/>
       <c r="B151" s="36" t="s">
         <v>5</v>
       </c>
@@ -21252,7 +21252,7 @@
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A152" s="48"/>
+      <c r="A152" s="50"/>
       <c r="B152" s="36" t="s">
         <v>6</v>
       </c>
@@ -21309,7 +21309,7 @@
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A153" s="48"/>
+      <c r="A153" s="50"/>
       <c r="B153" s="36" t="s">
         <v>7</v>
       </c>
@@ -21366,7 +21366,7 @@
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A154" s="48"/>
+      <c r="A154" s="50"/>
       <c r="B154" s="36" t="s">
         <v>8</v>
       </c>
@@ -21423,7 +21423,7 @@
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A155" s="48"/>
+      <c r="A155" s="50"/>
       <c r="B155" s="36" t="s">
         <v>9</v>
       </c>
@@ -21480,7 +21480,7 @@
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A156" s="48"/>
+      <c r="A156" s="50"/>
       <c r="B156" s="36" t="s">
         <v>10</v>
       </c>
@@ -21537,7 +21537,7 @@
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A157" s="48"/>
+      <c r="A157" s="50"/>
       <c r="B157" s="36" t="s">
         <v>11</v>
       </c>
@@ -21594,7 +21594,7 @@
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A158" s="48"/>
+      <c r="A158" s="50"/>
       <c r="B158" s="36" t="s">
         <v>12</v>
       </c>
@@ -21651,7 +21651,7 @@
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A159" s="48"/>
+      <c r="A159" s="50"/>
       <c r="B159" s="36" t="s">
         <v>13</v>
       </c>
@@ -21708,7 +21708,7 @@
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A160" s="48"/>
+      <c r="A160" s="50"/>
       <c r="B160" s="36" t="s">
         <v>14</v>
       </c>
@@ -21765,7 +21765,7 @@
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A161" s="48"/>
+      <c r="A161" s="50"/>
       <c r="B161" s="36" t="s">
         <v>15</v>
       </c>
@@ -21822,7 +21822,7 @@
       </c>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A162" s="48" t="s">
+      <c r="A162" s="50" t="s">
         <v>80</v>
       </c>
       <c r="B162" s="36" t="s">
@@ -21881,7 +21881,7 @@
       </c>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A163" s="48"/>
+      <c r="A163" s="50"/>
       <c r="B163" s="36" t="s">
         <v>1</v>
       </c>
@@ -21938,7 +21938,7 @@
       </c>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A164" s="48"/>
+      <c r="A164" s="50"/>
       <c r="B164" s="36" t="s">
         <v>2</v>
       </c>
@@ -21995,7 +21995,7 @@
       </c>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A165" s="48"/>
+      <c r="A165" s="50"/>
       <c r="B165" s="36" t="s">
         <v>3</v>
       </c>
@@ -22052,7 +22052,7 @@
       </c>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A166" s="48"/>
+      <c r="A166" s="50"/>
       <c r="B166" s="36" t="s">
         <v>4</v>
       </c>
@@ -22109,7 +22109,7 @@
       </c>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A167" s="48"/>
+      <c r="A167" s="50"/>
       <c r="B167" s="36" t="s">
         <v>5</v>
       </c>
@@ -22166,7 +22166,7 @@
       </c>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A168" s="48"/>
+      <c r="A168" s="50"/>
       <c r="B168" s="36" t="s">
         <v>6</v>
       </c>
@@ -22223,7 +22223,7 @@
       </c>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A169" s="48"/>
+      <c r="A169" s="50"/>
       <c r="B169" s="36" t="s">
         <v>7</v>
       </c>
@@ -22280,7 +22280,7 @@
       </c>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A170" s="48"/>
+      <c r="A170" s="50"/>
       <c r="B170" s="36" t="s">
         <v>8</v>
       </c>
@@ -22337,7 +22337,7 @@
       </c>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A171" s="48"/>
+      <c r="A171" s="50"/>
       <c r="B171" s="36" t="s">
         <v>9</v>
       </c>
@@ -22394,7 +22394,7 @@
       </c>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A172" s="48"/>
+      <c r="A172" s="50"/>
       <c r="B172" s="36" t="s">
         <v>10</v>
       </c>
@@ -22451,7 +22451,7 @@
       </c>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A173" s="48"/>
+      <c r="A173" s="50"/>
       <c r="B173" s="36" t="s">
         <v>11</v>
       </c>
@@ -22508,7 +22508,7 @@
       </c>
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A174" s="48"/>
+      <c r="A174" s="50"/>
       <c r="B174" s="36" t="s">
         <v>12</v>
       </c>
@@ -22565,7 +22565,7 @@
       </c>
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A175" s="48"/>
+      <c r="A175" s="50"/>
       <c r="B175" s="36" t="s">
         <v>13</v>
       </c>
@@ -22622,7 +22622,7 @@
       </c>
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A176" s="48"/>
+      <c r="A176" s="50"/>
       <c r="B176" s="36" t="s">
         <v>14</v>
       </c>
@@ -22679,7 +22679,7 @@
       </c>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A177" s="48"/>
+      <c r="A177" s="50"/>
       <c r="B177" s="36" t="s">
         <v>15</v>
       </c>
@@ -22737,17 +22737,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="A34:A49"/>
-    <mergeCell ref="A50:A65"/>
-    <mergeCell ref="A66:A81"/>
     <mergeCell ref="A162:A177"/>
     <mergeCell ref="A82:A97"/>
     <mergeCell ref="A98:A113"/>
     <mergeCell ref="A114:A129"/>
     <mergeCell ref="A130:A145"/>
     <mergeCell ref="A146:A161"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="A34:A49"/>
+    <mergeCell ref="A50:A65"/>
+    <mergeCell ref="A66:A81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22823,7 +22823,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -22882,7 +22882,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -22939,7 +22939,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -22996,7 +22996,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -23053,7 +23053,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -23110,7 +23110,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -23167,7 +23167,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -23224,7 +23224,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -23281,7 +23281,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -23338,7 +23338,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -23395,7 +23395,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -23452,7 +23452,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -23509,7 +23509,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
@@ -23566,7 +23566,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -23623,7 +23623,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -23680,7 +23680,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -23737,7 +23737,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="50" t="s">
         <v>71</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -23796,7 +23796,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
@@ -23853,7 +23853,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="1" t="s">
         <v>2</v>
       </c>
@@ -23910,7 +23910,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="1" t="s">
         <v>3</v>
       </c>
@@ -23967,7 +23967,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
@@ -24024,7 +24024,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
@@ -24081,7 +24081,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
@@ -24138,7 +24138,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
@@ -24195,7 +24195,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="1" t="s">
         <v>8</v>
       </c>
@@ -24252,7 +24252,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
@@ -24309,7 +24309,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
@@ -24366,7 +24366,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
@@ -24423,7 +24423,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="1" t="s">
         <v>12</v>
       </c>
@@ -24480,7 +24480,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="1" t="s">
         <v>13</v>
       </c>
@@ -24537,7 +24537,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
@@ -24594,7 +24594,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="1" t="s">
         <v>15</v>
       </c>
@@ -24651,7 +24651,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="50" t="s">
         <v>72</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -24710,7 +24710,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="1" t="s">
         <v>1</v>
       </c>
@@ -24767,7 +24767,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="1" t="s">
         <v>2</v>
       </c>
@@ -24824,7 +24824,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="1" t="s">
         <v>3</v>
       </c>
@@ -24881,7 +24881,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
+      <c r="A38" s="50"/>
       <c r="B38" s="1" t="s">
         <v>4</v>
       </c>
@@ -24938,7 +24938,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
+      <c r="A39" s="50"/>
       <c r="B39" s="1" t="s">
         <v>5</v>
       </c>
@@ -24995,7 +24995,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
+      <c r="A40" s="50"/>
       <c r="B40" s="1" t="s">
         <v>6</v>
       </c>
@@ -25052,7 +25052,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
+      <c r="A41" s="50"/>
       <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
@@ -25109,7 +25109,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
+      <c r="A42" s="50"/>
       <c r="B42" s="1" t="s">
         <v>8</v>
       </c>
@@ -25166,7 +25166,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
+      <c r="A43" s="50"/>
       <c r="B43" s="1" t="s">
         <v>9</v>
       </c>
@@ -25223,7 +25223,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
+      <c r="A44" s="50"/>
       <c r="B44" s="1" t="s">
         <v>10</v>
       </c>
@@ -25280,7 +25280,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
+      <c r="A45" s="50"/>
       <c r="B45" s="1" t="s">
         <v>11</v>
       </c>
@@ -25337,7 +25337,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
+      <c r="A46" s="50"/>
       <c r="B46" s="1" t="s">
         <v>12</v>
       </c>
@@ -25394,7 +25394,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="48"/>
+      <c r="A47" s="50"/>
       <c r="B47" s="1" t="s">
         <v>13</v>
       </c>
@@ -25451,7 +25451,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="48"/>
+      <c r="A48" s="50"/>
       <c r="B48" s="1" t="s">
         <v>14</v>
       </c>
@@ -25508,7 +25508,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
+      <c r="A49" s="50"/>
       <c r="B49" s="1" t="s">
         <v>15</v>
       </c>
@@ -25565,7 +25565,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="48" t="s">
+      <c r="A50" s="50" t="s">
         <v>73</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -25624,7 +25624,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="48"/>
+      <c r="A51" s="50"/>
       <c r="B51" s="1" t="s">
         <v>1</v>
       </c>
@@ -25681,7 +25681,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="48"/>
+      <c r="A52" s="50"/>
       <c r="B52" s="1" t="s">
         <v>2</v>
       </c>
@@ -25738,7 +25738,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="48"/>
+      <c r="A53" s="50"/>
       <c r="B53" s="1" t="s">
         <v>3</v>
       </c>
@@ -25795,7 +25795,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="48"/>
+      <c r="A54" s="50"/>
       <c r="B54" s="1" t="s">
         <v>4</v>
       </c>
@@ -25852,7 +25852,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="48"/>
+      <c r="A55" s="50"/>
       <c r="B55" s="1" t="s">
         <v>5</v>
       </c>
@@ -25909,7 +25909,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="48"/>
+      <c r="A56" s="50"/>
       <c r="B56" s="1" t="s">
         <v>6</v>
       </c>
@@ -25966,7 +25966,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="48"/>
+      <c r="A57" s="50"/>
       <c r="B57" s="1" t="s">
         <v>7</v>
       </c>
@@ -26023,7 +26023,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="48"/>
+      <c r="A58" s="50"/>
       <c r="B58" s="1" t="s">
         <v>8</v>
       </c>
@@ -26080,7 +26080,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="48"/>
+      <c r="A59" s="50"/>
       <c r="B59" s="1" t="s">
         <v>9</v>
       </c>
@@ -26137,7 +26137,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="48"/>
+      <c r="A60" s="50"/>
       <c r="B60" s="1" t="s">
         <v>10</v>
       </c>
@@ -26194,7 +26194,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="48"/>
+      <c r="A61" s="50"/>
       <c r="B61" s="1" t="s">
         <v>11</v>
       </c>
@@ -26251,7 +26251,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="48"/>
+      <c r="A62" s="50"/>
       <c r="B62" s="1" t="s">
         <v>12</v>
       </c>
@@ -26308,7 +26308,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="48"/>
+      <c r="A63" s="50"/>
       <c r="B63" s="1" t="s">
         <v>13</v>
       </c>
@@ -26365,7 +26365,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="48"/>
+      <c r="A64" s="50"/>
       <c r="B64" s="1" t="s">
         <v>14</v>
       </c>
@@ -26422,7 +26422,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="48"/>
+      <c r="A65" s="50"/>
       <c r="B65" s="1" t="s">
         <v>15</v>
       </c>
@@ -26479,7 +26479,7 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="48" t="s">
+      <c r="A66" s="50" t="s">
         <v>74</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -26538,7 +26538,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="48"/>
+      <c r="A67" s="50"/>
       <c r="B67" s="1" t="s">
         <v>1</v>
       </c>
@@ -26595,7 +26595,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="48"/>
+      <c r="A68" s="50"/>
       <c r="B68" s="1" t="s">
         <v>2</v>
       </c>
@@ -26652,7 +26652,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="48"/>
+      <c r="A69" s="50"/>
       <c r="B69" s="1" t="s">
         <v>3</v>
       </c>
@@ -26709,7 +26709,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="48"/>
+      <c r="A70" s="50"/>
       <c r="B70" s="1" t="s">
         <v>4</v>
       </c>
@@ -26766,7 +26766,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="48"/>
+      <c r="A71" s="50"/>
       <c r="B71" s="1" t="s">
         <v>5</v>
       </c>
@@ -26823,7 +26823,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="48"/>
+      <c r="A72" s="50"/>
       <c r="B72" s="1" t="s">
         <v>6</v>
       </c>
@@ -26880,7 +26880,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="48"/>
+      <c r="A73" s="50"/>
       <c r="B73" s="1" t="s">
         <v>7</v>
       </c>
@@ -26937,7 +26937,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="48"/>
+      <c r="A74" s="50"/>
       <c r="B74" s="1" t="s">
         <v>8</v>
       </c>
@@ -26994,7 +26994,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="48"/>
+      <c r="A75" s="50"/>
       <c r="B75" s="1" t="s">
         <v>9</v>
       </c>
@@ -27051,7 +27051,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="48"/>
+      <c r="A76" s="50"/>
       <c r="B76" s="1" t="s">
         <v>10</v>
       </c>
@@ -27108,7 +27108,7 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="48"/>
+      <c r="A77" s="50"/>
       <c r="B77" s="1" t="s">
         <v>11</v>
       </c>
@@ -27165,7 +27165,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="48"/>
+      <c r="A78" s="50"/>
       <c r="B78" s="1" t="s">
         <v>12</v>
       </c>
@@ -27222,7 +27222,7 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="48"/>
+      <c r="A79" s="50"/>
       <c r="B79" s="1" t="s">
         <v>13</v>
       </c>
@@ -27279,7 +27279,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="48"/>
+      <c r="A80" s="50"/>
       <c r="B80" s="1" t="s">
         <v>14</v>
       </c>
@@ -27336,7 +27336,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="48"/>
+      <c r="A81" s="50"/>
       <c r="B81" s="1" t="s">
         <v>15</v>
       </c>
@@ -27393,7 +27393,7 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="48" t="s">
+      <c r="A82" s="50" t="s">
         <v>75</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -27452,7 +27452,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="48"/>
+      <c r="A83" s="50"/>
       <c r="B83" s="1" t="s">
         <v>1</v>
       </c>
@@ -27509,7 +27509,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="48"/>
+      <c r="A84" s="50"/>
       <c r="B84" s="1" t="s">
         <v>2</v>
       </c>
@@ -27566,7 +27566,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="48"/>
+      <c r="A85" s="50"/>
       <c r="B85" s="1" t="s">
         <v>3</v>
       </c>
@@ -27623,7 +27623,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="48"/>
+      <c r="A86" s="50"/>
       <c r="B86" s="1" t="s">
         <v>4</v>
       </c>
@@ -27680,7 +27680,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="48"/>
+      <c r="A87" s="50"/>
       <c r="B87" s="1" t="s">
         <v>5</v>
       </c>
@@ -27737,7 +27737,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="48"/>
+      <c r="A88" s="50"/>
       <c r="B88" s="1" t="s">
         <v>6</v>
       </c>
@@ -27794,7 +27794,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="48"/>
+      <c r="A89" s="50"/>
       <c r="B89" s="1" t="s">
         <v>7</v>
       </c>
@@ -27851,7 +27851,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="48"/>
+      <c r="A90" s="50"/>
       <c r="B90" s="1" t="s">
         <v>8</v>
       </c>
@@ -27908,7 +27908,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="48"/>
+      <c r="A91" s="50"/>
       <c r="B91" s="1" t="s">
         <v>9</v>
       </c>
@@ -27965,7 +27965,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="48"/>
+      <c r="A92" s="50"/>
       <c r="B92" s="1" t="s">
         <v>10</v>
       </c>
@@ -28022,7 +28022,7 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="48"/>
+      <c r="A93" s="50"/>
       <c r="B93" s="1" t="s">
         <v>11</v>
       </c>
@@ -28079,7 +28079,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="48"/>
+      <c r="A94" s="50"/>
       <c r="B94" s="1" t="s">
         <v>12</v>
       </c>
@@ -28136,7 +28136,7 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="48"/>
+      <c r="A95" s="50"/>
       <c r="B95" s="1" t="s">
         <v>13</v>
       </c>
@@ -28193,7 +28193,7 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="48"/>
+      <c r="A96" s="50"/>
       <c r="B96" s="1" t="s">
         <v>14</v>
       </c>
@@ -28250,7 +28250,7 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="48"/>
+      <c r="A97" s="50"/>
       <c r="B97" s="1" t="s">
         <v>15</v>
       </c>
@@ -28307,7 +28307,7 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="48" t="s">
+      <c r="A98" s="50" t="s">
         <v>76</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -28366,7 +28366,7 @@
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="48"/>
+      <c r="A99" s="50"/>
       <c r="B99" s="1" t="s">
         <v>1</v>
       </c>
@@ -28423,7 +28423,7 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="48"/>
+      <c r="A100" s="50"/>
       <c r="B100" s="1" t="s">
         <v>2</v>
       </c>
@@ -28480,7 +28480,7 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="48"/>
+      <c r="A101" s="50"/>
       <c r="B101" s="1" t="s">
         <v>3</v>
       </c>
@@ -28537,7 +28537,7 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="48"/>
+      <c r="A102" s="50"/>
       <c r="B102" s="1" t="s">
         <v>4</v>
       </c>
@@ -28594,7 +28594,7 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="48"/>
+      <c r="A103" s="50"/>
       <c r="B103" s="1" t="s">
         <v>5</v>
       </c>
@@ -28651,7 +28651,7 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="48"/>
+      <c r="A104" s="50"/>
       <c r="B104" s="1" t="s">
         <v>6</v>
       </c>
@@ -28708,7 +28708,7 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="48"/>
+      <c r="A105" s="50"/>
       <c r="B105" s="1" t="s">
         <v>7</v>
       </c>
@@ -28765,7 +28765,7 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="48"/>
+      <c r="A106" s="50"/>
       <c r="B106" s="1" t="s">
         <v>8</v>
       </c>
@@ -28822,7 +28822,7 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="48"/>
+      <c r="A107" s="50"/>
       <c r="B107" s="1" t="s">
         <v>9</v>
       </c>
@@ -28879,7 +28879,7 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="48"/>
+      <c r="A108" s="50"/>
       <c r="B108" s="1" t="s">
         <v>10</v>
       </c>
@@ -28936,7 +28936,7 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="48"/>
+      <c r="A109" s="50"/>
       <c r="B109" s="1" t="s">
         <v>11</v>
       </c>
@@ -28993,7 +28993,7 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="48"/>
+      <c r="A110" s="50"/>
       <c r="B110" s="1" t="s">
         <v>12</v>
       </c>
@@ -29050,7 +29050,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="48"/>
+      <c r="A111" s="50"/>
       <c r="B111" s="1" t="s">
         <v>13</v>
       </c>
@@ -29107,7 +29107,7 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="48"/>
+      <c r="A112" s="50"/>
       <c r="B112" s="1" t="s">
         <v>14</v>
       </c>
@@ -29164,7 +29164,7 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="48"/>
+      <c r="A113" s="50"/>
       <c r="B113" s="1" t="s">
         <v>15</v>
       </c>
@@ -29221,7 +29221,7 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A114" s="48" t="s">
+      <c r="A114" s="50" t="s">
         <v>77</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -29280,7 +29280,7 @@
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A115" s="48"/>
+      <c r="A115" s="50"/>
       <c r="B115" s="1" t="s">
         <v>1</v>
       </c>
@@ -29337,7 +29337,7 @@
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A116" s="48"/>
+      <c r="A116" s="50"/>
       <c r="B116" s="1" t="s">
         <v>2</v>
       </c>
@@ -29394,7 +29394,7 @@
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A117" s="48"/>
+      <c r="A117" s="50"/>
       <c r="B117" s="1" t="s">
         <v>3</v>
       </c>
@@ -29451,7 +29451,7 @@
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A118" s="48"/>
+      <c r="A118" s="50"/>
       <c r="B118" s="1" t="s">
         <v>4</v>
       </c>
@@ -29508,7 +29508,7 @@
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A119" s="48"/>
+      <c r="A119" s="50"/>
       <c r="B119" s="1" t="s">
         <v>5</v>
       </c>
@@ -29565,7 +29565,7 @@
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A120" s="48"/>
+      <c r="A120" s="50"/>
       <c r="B120" s="1" t="s">
         <v>6</v>
       </c>
@@ -29622,7 +29622,7 @@
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A121" s="48"/>
+      <c r="A121" s="50"/>
       <c r="B121" s="1" t="s">
         <v>7</v>
       </c>
@@ -29679,7 +29679,7 @@
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A122" s="48"/>
+      <c r="A122" s="50"/>
       <c r="B122" s="1" t="s">
         <v>8</v>
       </c>
@@ -29736,7 +29736,7 @@
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A123" s="48"/>
+      <c r="A123" s="50"/>
       <c r="B123" s="1" t="s">
         <v>9</v>
       </c>
@@ -29793,7 +29793,7 @@
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A124" s="48"/>
+      <c r="A124" s="50"/>
       <c r="B124" s="1" t="s">
         <v>10</v>
       </c>
@@ -29850,7 +29850,7 @@
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A125" s="48"/>
+      <c r="A125" s="50"/>
       <c r="B125" s="1" t="s">
         <v>11</v>
       </c>
@@ -29907,7 +29907,7 @@
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A126" s="48"/>
+      <c r="A126" s="50"/>
       <c r="B126" s="1" t="s">
         <v>12</v>
       </c>
@@ -29964,7 +29964,7 @@
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A127" s="48"/>
+      <c r="A127" s="50"/>
       <c r="B127" s="1" t="s">
         <v>13</v>
       </c>
@@ -30021,7 +30021,7 @@
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A128" s="48"/>
+      <c r="A128" s="50"/>
       <c r="B128" s="1" t="s">
         <v>14</v>
       </c>
@@ -30078,7 +30078,7 @@
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A129" s="48"/>
+      <c r="A129" s="50"/>
       <c r="B129" s="1" t="s">
         <v>15</v>
       </c>
@@ -30135,7 +30135,7 @@
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A130" s="48" t="s">
+      <c r="A130" s="50" t="s">
         <v>78</v>
       </c>
       <c r="B130" s="1" t="s">
@@ -30194,7 +30194,7 @@
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A131" s="48"/>
+      <c r="A131" s="50"/>
       <c r="B131" s="1" t="s">
         <v>1</v>
       </c>
@@ -30251,7 +30251,7 @@
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A132" s="48"/>
+      <c r="A132" s="50"/>
       <c r="B132" s="1" t="s">
         <v>2</v>
       </c>
@@ -30308,7 +30308,7 @@
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A133" s="48"/>
+      <c r="A133" s="50"/>
       <c r="B133" s="1" t="s">
         <v>3</v>
       </c>
@@ -30365,7 +30365,7 @@
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A134" s="48"/>
+      <c r="A134" s="50"/>
       <c r="B134" s="1" t="s">
         <v>4</v>
       </c>
@@ -30422,7 +30422,7 @@
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A135" s="48"/>
+      <c r="A135" s="50"/>
       <c r="B135" s="1" t="s">
         <v>5</v>
       </c>
@@ -30479,7 +30479,7 @@
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A136" s="48"/>
+      <c r="A136" s="50"/>
       <c r="B136" s="1" t="s">
         <v>6</v>
       </c>
@@ -30536,7 +30536,7 @@
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A137" s="48"/>
+      <c r="A137" s="50"/>
       <c r="B137" s="1" t="s">
         <v>7</v>
       </c>
@@ -30593,7 +30593,7 @@
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A138" s="48"/>
+      <c r="A138" s="50"/>
       <c r="B138" s="1" t="s">
         <v>8</v>
       </c>
@@ -30650,7 +30650,7 @@
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A139" s="48"/>
+      <c r="A139" s="50"/>
       <c r="B139" s="1" t="s">
         <v>9</v>
       </c>
@@ -30707,7 +30707,7 @@
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A140" s="48"/>
+      <c r="A140" s="50"/>
       <c r="B140" s="1" t="s">
         <v>10</v>
       </c>
@@ -30764,7 +30764,7 @@
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A141" s="48"/>
+      <c r="A141" s="50"/>
       <c r="B141" s="1" t="s">
         <v>11</v>
       </c>
@@ -30821,7 +30821,7 @@
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A142" s="48"/>
+      <c r="A142" s="50"/>
       <c r="B142" s="1" t="s">
         <v>12</v>
       </c>
@@ -30878,7 +30878,7 @@
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A143" s="48"/>
+      <c r="A143" s="50"/>
       <c r="B143" s="1" t="s">
         <v>13</v>
       </c>
@@ -30935,7 +30935,7 @@
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A144" s="48"/>
+      <c r="A144" s="50"/>
       <c r="B144" s="1" t="s">
         <v>14</v>
       </c>
@@ -30992,7 +30992,7 @@
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A145" s="48"/>
+      <c r="A145" s="50"/>
       <c r="B145" s="1" t="s">
         <v>15</v>
       </c>
@@ -31049,7 +31049,7 @@
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A146" s="48" t="s">
+      <c r="A146" s="50" t="s">
         <v>79</v>
       </c>
       <c r="B146" s="1" t="s">
@@ -31108,7 +31108,7 @@
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A147" s="48"/>
+      <c r="A147" s="50"/>
       <c r="B147" s="1" t="s">
         <v>1</v>
       </c>
@@ -31165,7 +31165,7 @@
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A148" s="48"/>
+      <c r="A148" s="50"/>
       <c r="B148" s="1" t="s">
         <v>2</v>
       </c>
@@ -31222,7 +31222,7 @@
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A149" s="48"/>
+      <c r="A149" s="50"/>
       <c r="B149" s="1" t="s">
         <v>3</v>
       </c>
@@ -31279,7 +31279,7 @@
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A150" s="48"/>
+      <c r="A150" s="50"/>
       <c r="B150" s="1" t="s">
         <v>4</v>
       </c>
@@ -31336,7 +31336,7 @@
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A151" s="48"/>
+      <c r="A151" s="50"/>
       <c r="B151" s="1" t="s">
         <v>5</v>
       </c>
@@ -31393,7 +31393,7 @@
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A152" s="48"/>
+      <c r="A152" s="50"/>
       <c r="B152" s="1" t="s">
         <v>6</v>
       </c>
@@ -31450,7 +31450,7 @@
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A153" s="48"/>
+      <c r="A153" s="50"/>
       <c r="B153" s="1" t="s">
         <v>7</v>
       </c>
@@ -31507,7 +31507,7 @@
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A154" s="48"/>
+      <c r="A154" s="50"/>
       <c r="B154" s="1" t="s">
         <v>8</v>
       </c>
@@ -31564,7 +31564,7 @@
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A155" s="48"/>
+      <c r="A155" s="50"/>
       <c r="B155" s="1" t="s">
         <v>9</v>
       </c>
@@ -31621,7 +31621,7 @@
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A156" s="48"/>
+      <c r="A156" s="50"/>
       <c r="B156" s="1" t="s">
         <v>10</v>
       </c>
@@ -31678,7 +31678,7 @@
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A157" s="48"/>
+      <c r="A157" s="50"/>
       <c r="B157" s="1" t="s">
         <v>11</v>
       </c>
@@ -31735,7 +31735,7 @@
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A158" s="48"/>
+      <c r="A158" s="50"/>
       <c r="B158" s="1" t="s">
         <v>12</v>
       </c>
@@ -31792,7 +31792,7 @@
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A159" s="48"/>
+      <c r="A159" s="50"/>
       <c r="B159" s="1" t="s">
         <v>13</v>
       </c>
@@ -31849,7 +31849,7 @@
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A160" s="48"/>
+      <c r="A160" s="50"/>
       <c r="B160" s="1" t="s">
         <v>14</v>
       </c>
@@ -31906,7 +31906,7 @@
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A161" s="48"/>
+      <c r="A161" s="50"/>
       <c r="B161" s="1" t="s">
         <v>15</v>
       </c>
@@ -31963,7 +31963,7 @@
       </c>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A162" s="48" t="s">
+      <c r="A162" s="50" t="s">
         <v>80</v>
       </c>
       <c r="B162" s="1" t="s">
@@ -32022,7 +32022,7 @@
       </c>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A163" s="48"/>
+      <c r="A163" s="50"/>
       <c r="B163" s="1" t="s">
         <v>1</v>
       </c>
@@ -32079,7 +32079,7 @@
       </c>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A164" s="48"/>
+      <c r="A164" s="50"/>
       <c r="B164" s="1" t="s">
         <v>2</v>
       </c>
@@ -32136,7 +32136,7 @@
       </c>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A165" s="48"/>
+      <c r="A165" s="50"/>
       <c r="B165" s="1" t="s">
         <v>3</v>
       </c>
@@ -32193,7 +32193,7 @@
       </c>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A166" s="48"/>
+      <c r="A166" s="50"/>
       <c r="B166" s="1" t="s">
         <v>4</v>
       </c>
@@ -32250,7 +32250,7 @@
       </c>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A167" s="48"/>
+      <c r="A167" s="50"/>
       <c r="B167" s="1" t="s">
         <v>5</v>
       </c>
@@ -32307,7 +32307,7 @@
       </c>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A168" s="48"/>
+      <c r="A168" s="50"/>
       <c r="B168" s="1" t="s">
         <v>6</v>
       </c>
@@ -32364,7 +32364,7 @@
       </c>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A169" s="48"/>
+      <c r="A169" s="50"/>
       <c r="B169" s="1" t="s">
         <v>7</v>
       </c>
@@ -32421,7 +32421,7 @@
       </c>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A170" s="48"/>
+      <c r="A170" s="50"/>
       <c r="B170" s="1" t="s">
         <v>8</v>
       </c>
@@ -32478,7 +32478,7 @@
       </c>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A171" s="48"/>
+      <c r="A171" s="50"/>
       <c r="B171" s="1" t="s">
         <v>9</v>
       </c>
@@ -32535,7 +32535,7 @@
       </c>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A172" s="48"/>
+      <c r="A172" s="50"/>
       <c r="B172" s="1" t="s">
         <v>10</v>
       </c>
@@ -32592,7 +32592,7 @@
       </c>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A173" s="48"/>
+      <c r="A173" s="50"/>
       <c r="B173" s="1" t="s">
         <v>11</v>
       </c>
@@ -32649,7 +32649,7 @@
       </c>
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A174" s="48"/>
+      <c r="A174" s="50"/>
       <c r="B174" s="1" t="s">
         <v>12</v>
       </c>
@@ -32706,7 +32706,7 @@
       </c>
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A175" s="48"/>
+      <c r="A175" s="50"/>
       <c r="B175" s="1" t="s">
         <v>13</v>
       </c>
@@ -32763,7 +32763,7 @@
       </c>
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A176" s="48"/>
+      <c r="A176" s="50"/>
       <c r="B176" s="1" t="s">
         <v>14</v>
       </c>
@@ -32820,7 +32820,7 @@
       </c>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A177" s="48"/>
+      <c r="A177" s="50"/>
       <c r="B177" s="1" t="s">
         <v>15</v>
       </c>
@@ -32878,17 +32878,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="A34:A49"/>
-    <mergeCell ref="A50:A65"/>
-    <mergeCell ref="A66:A81"/>
     <mergeCell ref="A162:A177"/>
     <mergeCell ref="A82:A97"/>
     <mergeCell ref="A98:A113"/>
     <mergeCell ref="A114:A129"/>
     <mergeCell ref="A130:A145"/>
     <mergeCell ref="A146:A161"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="A34:A49"/>
+    <mergeCell ref="A50:A65"/>
+    <mergeCell ref="A66:A81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32964,7 +32964,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="36" t="s">
@@ -33023,7 +33023,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="36" t="s">
         <v>1</v>
       </c>
@@ -33080,7 +33080,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="36" t="s">
         <v>2</v>
       </c>
@@ -33137,7 +33137,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="36" t="s">
         <v>3</v>
       </c>
@@ -33194,7 +33194,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="36" t="s">
         <v>4</v>
       </c>
@@ -33251,7 +33251,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="36" t="s">
         <v>5</v>
       </c>
@@ -33308,7 +33308,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="36" t="s">
         <v>6</v>
       </c>
@@ -33365,7 +33365,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="36" t="s">
         <v>7</v>
       </c>
@@ -33422,7 +33422,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="36" t="s">
         <v>8</v>
       </c>
@@ -33479,7 +33479,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="36" t="s">
         <v>9</v>
       </c>
@@ -33536,7 +33536,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="36" t="s">
         <v>10</v>
       </c>
@@ -33593,7 +33593,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="36" t="s">
         <v>11</v>
       </c>
@@ -33650,7 +33650,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="36" t="s">
         <v>12</v>
       </c>
@@ -33707,7 +33707,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="36" t="s">
         <v>13</v>
       </c>
@@ -33764,7 +33764,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="36" t="s">
         <v>14</v>
       </c>
@@ -33821,7 +33821,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="36" t="s">
         <v>15</v>
       </c>
@@ -33878,7 +33878,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="50" t="s">
         <v>71</v>
       </c>
       <c r="B18" s="36" t="s">
@@ -33937,7 +33937,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="36" t="s">
         <v>1</v>
       </c>
@@ -33994,7 +33994,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="36" t="s">
         <v>2</v>
       </c>
@@ -34051,7 +34051,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="36" t="s">
         <v>3</v>
       </c>
@@ -34108,7 +34108,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="36" t="s">
         <v>4</v>
       </c>
@@ -34165,7 +34165,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="36" t="s">
         <v>5</v>
       </c>
@@ -34222,7 +34222,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="36" t="s">
         <v>6</v>
       </c>
@@ -34279,7 +34279,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="36" t="s">
         <v>7</v>
       </c>
@@ -34336,7 +34336,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="36" t="s">
         <v>8</v>
       </c>
@@ -34393,7 +34393,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="36" t="s">
         <v>9</v>
       </c>
@@ -34450,7 +34450,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="36" t="s">
         <v>10</v>
       </c>
@@ -34507,7 +34507,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="36" t="s">
         <v>11</v>
       </c>
@@ -34564,7 +34564,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="36" t="s">
         <v>12</v>
       </c>
@@ -34621,7 +34621,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="36" t="s">
         <v>13</v>
       </c>
@@ -34678,7 +34678,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="36" t="s">
         <v>14</v>
       </c>
@@ -34735,7 +34735,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="36" t="s">
         <v>15</v>
       </c>
@@ -34792,7 +34792,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="50" t="s">
         <v>72</v>
       </c>
       <c r="B34" s="36" t="s">
@@ -34851,7 +34851,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="36" t="s">
         <v>1</v>
       </c>
@@ -34908,7 +34908,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="36" t="s">
         <v>2</v>
       </c>
@@ -34965,7 +34965,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="36" t="s">
         <v>3</v>
       </c>
@@ -35022,7 +35022,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
+      <c r="A38" s="50"/>
       <c r="B38" s="36" t="s">
         <v>4</v>
       </c>
@@ -35079,7 +35079,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
+      <c r="A39" s="50"/>
       <c r="B39" s="36" t="s">
         <v>5</v>
       </c>
@@ -35136,7 +35136,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
+      <c r="A40" s="50"/>
       <c r="B40" s="36" t="s">
         <v>6</v>
       </c>
@@ -35193,7 +35193,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
+      <c r="A41" s="50"/>
       <c r="B41" s="36" t="s">
         <v>7</v>
       </c>
@@ -35250,7 +35250,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
+      <c r="A42" s="50"/>
       <c r="B42" s="36" t="s">
         <v>8</v>
       </c>
@@ -35307,7 +35307,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
+      <c r="A43" s="50"/>
       <c r="B43" s="36" t="s">
         <v>9</v>
       </c>
@@ -35364,7 +35364,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
+      <c r="A44" s="50"/>
       <c r="B44" s="36" t="s">
         <v>10</v>
       </c>
@@ -35421,7 +35421,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
+      <c r="A45" s="50"/>
       <c r="B45" s="36" t="s">
         <v>11</v>
       </c>
@@ -35478,7 +35478,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
+      <c r="A46" s="50"/>
       <c r="B46" s="36" t="s">
         <v>12</v>
       </c>
@@ -35535,7 +35535,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="48"/>
+      <c r="A47" s="50"/>
       <c r="B47" s="36" t="s">
         <v>13</v>
       </c>
@@ -35592,7 +35592,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="48"/>
+      <c r="A48" s="50"/>
       <c r="B48" s="36" t="s">
         <v>14</v>
       </c>
@@ -35649,7 +35649,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
+      <c r="A49" s="50"/>
       <c r="B49" s="36" t="s">
         <v>15</v>
       </c>
@@ -35706,7 +35706,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="48" t="s">
+      <c r="A50" s="50" t="s">
         <v>73</v>
       </c>
       <c r="B50" s="36" t="s">
@@ -35765,7 +35765,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="48"/>
+      <c r="A51" s="50"/>
       <c r="B51" s="36" t="s">
         <v>1</v>
       </c>
@@ -35822,7 +35822,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="48"/>
+      <c r="A52" s="50"/>
       <c r="B52" s="36" t="s">
         <v>2</v>
       </c>
@@ -35879,7 +35879,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="48"/>
+      <c r="A53" s="50"/>
       <c r="B53" s="36" t="s">
         <v>3</v>
       </c>
@@ -35936,7 +35936,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="48"/>
+      <c r="A54" s="50"/>
       <c r="B54" s="36" t="s">
         <v>4</v>
       </c>
@@ -35993,7 +35993,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="48"/>
+      <c r="A55" s="50"/>
       <c r="B55" s="36" t="s">
         <v>5</v>
       </c>
@@ -36050,7 +36050,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="48"/>
+      <c r="A56" s="50"/>
       <c r="B56" s="36" t="s">
         <v>6</v>
       </c>
@@ -36107,7 +36107,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="48"/>
+      <c r="A57" s="50"/>
       <c r="B57" s="36" t="s">
         <v>7</v>
       </c>
@@ -36164,7 +36164,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="48"/>
+      <c r="A58" s="50"/>
       <c r="B58" s="36" t="s">
         <v>8</v>
       </c>
@@ -36221,7 +36221,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="48"/>
+      <c r="A59" s="50"/>
       <c r="B59" s="36" t="s">
         <v>9</v>
       </c>
@@ -36278,7 +36278,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="48"/>
+      <c r="A60" s="50"/>
       <c r="B60" s="36" t="s">
         <v>10</v>
       </c>
@@ -36335,7 +36335,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="48"/>
+      <c r="A61" s="50"/>
       <c r="B61" s="36" t="s">
         <v>11</v>
       </c>
@@ -36392,7 +36392,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="48"/>
+      <c r="A62" s="50"/>
       <c r="B62" s="36" t="s">
         <v>12</v>
       </c>
@@ -36449,7 +36449,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="48"/>
+      <c r="A63" s="50"/>
       <c r="B63" s="36" t="s">
         <v>13</v>
       </c>
@@ -36506,7 +36506,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="48"/>
+      <c r="A64" s="50"/>
       <c r="B64" s="36" t="s">
         <v>14</v>
       </c>
@@ -36563,7 +36563,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="48"/>
+      <c r="A65" s="50"/>
       <c r="B65" s="36" t="s">
         <v>15</v>
       </c>
@@ -36620,7 +36620,7 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="48" t="s">
+      <c r="A66" s="50" t="s">
         <v>74</v>
       </c>
       <c r="B66" s="36" t="s">
@@ -36679,7 +36679,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="48"/>
+      <c r="A67" s="50"/>
       <c r="B67" s="36" t="s">
         <v>1</v>
       </c>
@@ -36736,7 +36736,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="48"/>
+      <c r="A68" s="50"/>
       <c r="B68" s="36" t="s">
         <v>2</v>
       </c>
@@ -36793,7 +36793,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="48"/>
+      <c r="A69" s="50"/>
       <c r="B69" s="36" t="s">
         <v>3</v>
       </c>
@@ -36850,7 +36850,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="48"/>
+      <c r="A70" s="50"/>
       <c r="B70" s="36" t="s">
         <v>4</v>
       </c>
@@ -36907,7 +36907,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="48"/>
+      <c r="A71" s="50"/>
       <c r="B71" s="36" t="s">
         <v>5</v>
       </c>
@@ -36964,7 +36964,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="48"/>
+      <c r="A72" s="50"/>
       <c r="B72" s="36" t="s">
         <v>6</v>
       </c>
@@ -37021,7 +37021,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="48"/>
+      <c r="A73" s="50"/>
       <c r="B73" s="36" t="s">
         <v>7</v>
       </c>
@@ -37078,7 +37078,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="48"/>
+      <c r="A74" s="50"/>
       <c r="B74" s="36" t="s">
         <v>8</v>
       </c>
@@ -37135,7 +37135,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="48"/>
+      <c r="A75" s="50"/>
       <c r="B75" s="36" t="s">
         <v>9</v>
       </c>
@@ -37192,7 +37192,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="48"/>
+      <c r="A76" s="50"/>
       <c r="B76" s="36" t="s">
         <v>10</v>
       </c>
@@ -37249,7 +37249,7 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="48"/>
+      <c r="A77" s="50"/>
       <c r="B77" s="36" t="s">
         <v>11</v>
       </c>
@@ -37306,7 +37306,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="48"/>
+      <c r="A78" s="50"/>
       <c r="B78" s="36" t="s">
         <v>12</v>
       </c>
@@ -37363,7 +37363,7 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="48"/>
+      <c r="A79" s="50"/>
       <c r="B79" s="36" t="s">
         <v>13</v>
       </c>
@@ -37420,7 +37420,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="48"/>
+      <c r="A80" s="50"/>
       <c r="B80" s="36" t="s">
         <v>14</v>
       </c>
@@ -37477,7 +37477,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="48"/>
+      <c r="A81" s="50"/>
       <c r="B81" s="36" t="s">
         <v>15</v>
       </c>
@@ -37534,7 +37534,7 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="48" t="s">
+      <c r="A82" s="50" t="s">
         <v>75</v>
       </c>
       <c r="B82" s="36" t="s">
@@ -37593,7 +37593,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="48"/>
+      <c r="A83" s="50"/>
       <c r="B83" s="36" t="s">
         <v>1</v>
       </c>
@@ -37650,7 +37650,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="48"/>
+      <c r="A84" s="50"/>
       <c r="B84" s="36" t="s">
         <v>2</v>
       </c>
@@ -37707,7 +37707,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="48"/>
+      <c r="A85" s="50"/>
       <c r="B85" s="36" t="s">
         <v>3</v>
       </c>
@@ -37764,7 +37764,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="48"/>
+      <c r="A86" s="50"/>
       <c r="B86" s="36" t="s">
         <v>4</v>
       </c>
@@ -37821,7 +37821,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="48"/>
+      <c r="A87" s="50"/>
       <c r="B87" s="36" t="s">
         <v>5</v>
       </c>
@@ -37878,7 +37878,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="48"/>
+      <c r="A88" s="50"/>
       <c r="B88" s="36" t="s">
         <v>6</v>
       </c>
@@ -37935,7 +37935,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="48"/>
+      <c r="A89" s="50"/>
       <c r="B89" s="36" t="s">
         <v>7</v>
       </c>
@@ -37992,7 +37992,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="48"/>
+      <c r="A90" s="50"/>
       <c r="B90" s="36" t="s">
         <v>8</v>
       </c>
@@ -38049,7 +38049,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="48"/>
+      <c r="A91" s="50"/>
       <c r="B91" s="36" t="s">
         <v>9</v>
       </c>
@@ -38106,7 +38106,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="48"/>
+      <c r="A92" s="50"/>
       <c r="B92" s="36" t="s">
         <v>10</v>
       </c>
@@ -38163,7 +38163,7 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="48"/>
+      <c r="A93" s="50"/>
       <c r="B93" s="36" t="s">
         <v>11</v>
       </c>
@@ -38220,7 +38220,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="48"/>
+      <c r="A94" s="50"/>
       <c r="B94" s="36" t="s">
         <v>12</v>
       </c>
@@ -38277,7 +38277,7 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="48"/>
+      <c r="A95" s="50"/>
       <c r="B95" s="36" t="s">
         <v>13</v>
       </c>
@@ -38334,7 +38334,7 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="48"/>
+      <c r="A96" s="50"/>
       <c r="B96" s="36" t="s">
         <v>14</v>
       </c>
@@ -38391,7 +38391,7 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="48"/>
+      <c r="A97" s="50"/>
       <c r="B97" s="36" t="s">
         <v>15</v>
       </c>
@@ -38448,7 +38448,7 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="48" t="s">
+      <c r="A98" s="50" t="s">
         <v>76</v>
       </c>
       <c r="B98" s="36" t="s">
@@ -38507,7 +38507,7 @@
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="48"/>
+      <c r="A99" s="50"/>
       <c r="B99" s="36" t="s">
         <v>1</v>
       </c>
@@ -38564,7 +38564,7 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="48"/>
+      <c r="A100" s="50"/>
       <c r="B100" s="36" t="s">
         <v>2</v>
       </c>
@@ -38621,7 +38621,7 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="48"/>
+      <c r="A101" s="50"/>
       <c r="B101" s="36" t="s">
         <v>3</v>
       </c>
@@ -38678,7 +38678,7 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="48"/>
+      <c r="A102" s="50"/>
       <c r="B102" s="36" t="s">
         <v>4</v>
       </c>
@@ -38735,7 +38735,7 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="48"/>
+      <c r="A103" s="50"/>
       <c r="B103" s="36" t="s">
         <v>5</v>
       </c>
@@ -38792,7 +38792,7 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="48"/>
+      <c r="A104" s="50"/>
       <c r="B104" s="36" t="s">
         <v>6</v>
       </c>
@@ -38849,7 +38849,7 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="48"/>
+      <c r="A105" s="50"/>
       <c r="B105" s="36" t="s">
         <v>7</v>
       </c>
@@ -38906,7 +38906,7 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="48"/>
+      <c r="A106" s="50"/>
       <c r="B106" s="36" t="s">
         <v>8</v>
       </c>
@@ -38963,7 +38963,7 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="48"/>
+      <c r="A107" s="50"/>
       <c r="B107" s="36" t="s">
         <v>9</v>
       </c>
@@ -39020,7 +39020,7 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="48"/>
+      <c r="A108" s="50"/>
       <c r="B108" s="36" t="s">
         <v>10</v>
       </c>
@@ -39077,7 +39077,7 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="48"/>
+      <c r="A109" s="50"/>
       <c r="B109" s="36" t="s">
         <v>11</v>
       </c>
@@ -39134,7 +39134,7 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="48"/>
+      <c r="A110" s="50"/>
       <c r="B110" s="36" t="s">
         <v>12</v>
       </c>
@@ -39191,7 +39191,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="48"/>
+      <c r="A111" s="50"/>
       <c r="B111" s="36" t="s">
         <v>13</v>
       </c>
@@ -39248,7 +39248,7 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="48"/>
+      <c r="A112" s="50"/>
       <c r="B112" s="36" t="s">
         <v>14</v>
       </c>
@@ -39305,7 +39305,7 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="48"/>
+      <c r="A113" s="50"/>
       <c r="B113" s="36" t="s">
         <v>15</v>
       </c>
@@ -39362,7 +39362,7 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A114" s="48" t="s">
+      <c r="A114" s="50" t="s">
         <v>77</v>
       </c>
       <c r="B114" s="36" t="s">
@@ -39421,7 +39421,7 @@
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A115" s="48"/>
+      <c r="A115" s="50"/>
       <c r="B115" s="36" t="s">
         <v>1</v>
       </c>
@@ -39478,7 +39478,7 @@
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A116" s="48"/>
+      <c r="A116" s="50"/>
       <c r="B116" s="36" t="s">
         <v>2</v>
       </c>
@@ -39535,7 +39535,7 @@
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A117" s="48"/>
+      <c r="A117" s="50"/>
       <c r="B117" s="36" t="s">
         <v>3</v>
       </c>
@@ -39592,7 +39592,7 @@
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A118" s="48"/>
+      <c r="A118" s="50"/>
       <c r="B118" s="36" t="s">
         <v>4</v>
       </c>
@@ -39649,7 +39649,7 @@
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A119" s="48"/>
+      <c r="A119" s="50"/>
       <c r="B119" s="36" t="s">
         <v>5</v>
       </c>
@@ -39706,7 +39706,7 @@
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A120" s="48"/>
+      <c r="A120" s="50"/>
       <c r="B120" s="36" t="s">
         <v>6</v>
       </c>
@@ -39763,7 +39763,7 @@
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A121" s="48"/>
+      <c r="A121" s="50"/>
       <c r="B121" s="36" t="s">
         <v>7</v>
       </c>
@@ -39820,7 +39820,7 @@
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A122" s="48"/>
+      <c r="A122" s="50"/>
       <c r="B122" s="36" t="s">
         <v>8</v>
       </c>
@@ -39877,7 +39877,7 @@
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A123" s="48"/>
+      <c r="A123" s="50"/>
       <c r="B123" s="36" t="s">
         <v>9</v>
       </c>
@@ -39934,7 +39934,7 @@
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A124" s="48"/>
+      <c r="A124" s="50"/>
       <c r="B124" s="36" t="s">
         <v>10</v>
       </c>
@@ -39991,7 +39991,7 @@
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A125" s="48"/>
+      <c r="A125" s="50"/>
       <c r="B125" s="36" t="s">
         <v>11</v>
       </c>
@@ -40048,7 +40048,7 @@
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A126" s="48"/>
+      <c r="A126" s="50"/>
       <c r="B126" s="36" t="s">
         <v>12</v>
       </c>
@@ -40105,7 +40105,7 @@
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A127" s="48"/>
+      <c r="A127" s="50"/>
       <c r="B127" s="36" t="s">
         <v>13</v>
       </c>
@@ -40162,7 +40162,7 @@
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A128" s="48"/>
+      <c r="A128" s="50"/>
       <c r="B128" s="36" t="s">
         <v>14</v>
       </c>
@@ -40219,7 +40219,7 @@
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A129" s="48"/>
+      <c r="A129" s="50"/>
       <c r="B129" s="36" t="s">
         <v>15</v>
       </c>
@@ -40276,7 +40276,7 @@
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A130" s="48" t="s">
+      <c r="A130" s="50" t="s">
         <v>78</v>
       </c>
       <c r="B130" s="36" t="s">
@@ -40335,7 +40335,7 @@
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A131" s="48"/>
+      <c r="A131" s="50"/>
       <c r="B131" s="36" t="s">
         <v>1</v>
       </c>
@@ -40392,7 +40392,7 @@
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A132" s="48"/>
+      <c r="A132" s="50"/>
       <c r="B132" s="36" t="s">
         <v>2</v>
       </c>
@@ -40449,7 +40449,7 @@
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A133" s="48"/>
+      <c r="A133" s="50"/>
       <c r="B133" s="36" t="s">
         <v>3</v>
       </c>
@@ -40506,7 +40506,7 @@
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A134" s="48"/>
+      <c r="A134" s="50"/>
       <c r="B134" s="36" t="s">
         <v>4</v>
       </c>
@@ -40563,7 +40563,7 @@
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A135" s="48"/>
+      <c r="A135" s="50"/>
       <c r="B135" s="36" t="s">
         <v>5</v>
       </c>
@@ -40620,7 +40620,7 @@
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A136" s="48"/>
+      <c r="A136" s="50"/>
       <c r="B136" s="36" t="s">
         <v>6</v>
       </c>
@@ -40677,7 +40677,7 @@
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A137" s="48"/>
+      <c r="A137" s="50"/>
       <c r="B137" s="36" t="s">
         <v>7</v>
       </c>
@@ -40734,7 +40734,7 @@
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A138" s="48"/>
+      <c r="A138" s="50"/>
       <c r="B138" s="36" t="s">
         <v>8</v>
       </c>
@@ -40791,7 +40791,7 @@
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A139" s="48"/>
+      <c r="A139" s="50"/>
       <c r="B139" s="36" t="s">
         <v>9</v>
       </c>
@@ -40848,7 +40848,7 @@
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A140" s="48"/>
+      <c r="A140" s="50"/>
       <c r="B140" s="36" t="s">
         <v>10</v>
       </c>
@@ -40905,7 +40905,7 @@
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A141" s="48"/>
+      <c r="A141" s="50"/>
       <c r="B141" s="36" t="s">
         <v>11</v>
       </c>
@@ -40962,7 +40962,7 @@
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A142" s="48"/>
+      <c r="A142" s="50"/>
       <c r="B142" s="36" t="s">
         <v>12</v>
       </c>
@@ -41019,7 +41019,7 @@
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A143" s="48"/>
+      <c r="A143" s="50"/>
       <c r="B143" s="36" t="s">
         <v>13</v>
       </c>
@@ -41076,7 +41076,7 @@
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A144" s="48"/>
+      <c r="A144" s="50"/>
       <c r="B144" s="36" t="s">
         <v>14</v>
       </c>
@@ -41133,7 +41133,7 @@
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A145" s="48"/>
+      <c r="A145" s="50"/>
       <c r="B145" s="36" t="s">
         <v>15</v>
       </c>
@@ -41190,7 +41190,7 @@
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A146" s="48" t="s">
+      <c r="A146" s="50" t="s">
         <v>79</v>
       </c>
       <c r="B146" s="36" t="s">
@@ -41249,7 +41249,7 @@
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A147" s="48"/>
+      <c r="A147" s="50"/>
       <c r="B147" s="36" t="s">
         <v>1</v>
       </c>
@@ -41306,7 +41306,7 @@
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A148" s="48"/>
+      <c r="A148" s="50"/>
       <c r="B148" s="36" t="s">
         <v>2</v>
       </c>
@@ -41363,7 +41363,7 @@
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A149" s="48"/>
+      <c r="A149" s="50"/>
       <c r="B149" s="36" t="s">
         <v>3</v>
       </c>
@@ -41420,7 +41420,7 @@
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A150" s="48"/>
+      <c r="A150" s="50"/>
       <c r="B150" s="36" t="s">
         <v>4</v>
       </c>
@@ -41477,7 +41477,7 @@
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A151" s="48"/>
+      <c r="A151" s="50"/>
       <c r="B151" s="36" t="s">
         <v>5</v>
       </c>
@@ -41534,7 +41534,7 @@
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A152" s="48"/>
+      <c r="A152" s="50"/>
       <c r="B152" s="36" t="s">
         <v>6</v>
       </c>
@@ -41591,7 +41591,7 @@
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A153" s="48"/>
+      <c r="A153" s="50"/>
       <c r="B153" s="36" t="s">
         <v>7</v>
       </c>
@@ -41648,7 +41648,7 @@
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A154" s="48"/>
+      <c r="A154" s="50"/>
       <c r="B154" s="36" t="s">
         <v>8</v>
       </c>
@@ -41705,7 +41705,7 @@
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A155" s="48"/>
+      <c r="A155" s="50"/>
       <c r="B155" s="36" t="s">
         <v>9</v>
       </c>
@@ -41762,7 +41762,7 @@
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A156" s="48"/>
+      <c r="A156" s="50"/>
       <c r="B156" s="36" t="s">
         <v>10</v>
       </c>
@@ -41819,7 +41819,7 @@
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A157" s="48"/>
+      <c r="A157" s="50"/>
       <c r="B157" s="36" t="s">
         <v>11</v>
       </c>
@@ -41876,7 +41876,7 @@
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A158" s="48"/>
+      <c r="A158" s="50"/>
       <c r="B158" s="36" t="s">
         <v>12</v>
       </c>
@@ -41933,7 +41933,7 @@
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A159" s="48"/>
+      <c r="A159" s="50"/>
       <c r="B159" s="36" t="s">
         <v>13</v>
       </c>
@@ -41990,7 +41990,7 @@
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A160" s="48"/>
+      <c r="A160" s="50"/>
       <c r="B160" s="36" t="s">
         <v>14</v>
       </c>
@@ -42047,7 +42047,7 @@
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A161" s="48"/>
+      <c r="A161" s="50"/>
       <c r="B161" s="36" t="s">
         <v>15</v>
       </c>
@@ -42104,7 +42104,7 @@
       </c>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A162" s="48" t="s">
+      <c r="A162" s="50" t="s">
         <v>80</v>
       </c>
       <c r="B162" s="36" t="s">
@@ -42163,7 +42163,7 @@
       </c>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A163" s="48"/>
+      <c r="A163" s="50"/>
       <c r="B163" s="36" t="s">
         <v>1</v>
       </c>
@@ -42220,7 +42220,7 @@
       </c>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A164" s="48"/>
+      <c r="A164" s="50"/>
       <c r="B164" s="36" t="s">
         <v>2</v>
       </c>
@@ -42277,7 +42277,7 @@
       </c>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A165" s="48"/>
+      <c r="A165" s="50"/>
       <c r="B165" s="36" t="s">
         <v>3</v>
       </c>
@@ -42334,7 +42334,7 @@
       </c>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A166" s="48"/>
+      <c r="A166" s="50"/>
       <c r="B166" s="36" t="s">
         <v>4</v>
       </c>
@@ -42391,7 +42391,7 @@
       </c>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A167" s="48"/>
+      <c r="A167" s="50"/>
       <c r="B167" s="36" t="s">
         <v>5</v>
       </c>
@@ -42448,7 +42448,7 @@
       </c>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A168" s="48"/>
+      <c r="A168" s="50"/>
       <c r="B168" s="36" t="s">
         <v>6</v>
       </c>
@@ -42505,7 +42505,7 @@
       </c>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A169" s="48"/>
+      <c r="A169" s="50"/>
       <c r="B169" s="36" t="s">
         <v>7</v>
       </c>
@@ -42562,7 +42562,7 @@
       </c>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A170" s="48"/>
+      <c r="A170" s="50"/>
       <c r="B170" s="36" t="s">
         <v>8</v>
       </c>
@@ -42619,7 +42619,7 @@
       </c>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A171" s="48"/>
+      <c r="A171" s="50"/>
       <c r="B171" s="36" t="s">
         <v>9</v>
       </c>
@@ -42676,7 +42676,7 @@
       </c>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A172" s="48"/>
+      <c r="A172" s="50"/>
       <c r="B172" s="36" t="s">
         <v>10</v>
       </c>
@@ -42733,7 +42733,7 @@
       </c>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A173" s="48"/>
+      <c r="A173" s="50"/>
       <c r="B173" s="36" t="s">
         <v>11</v>
       </c>
@@ -42790,7 +42790,7 @@
       </c>
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A174" s="48"/>
+      <c r="A174" s="50"/>
       <c r="B174" s="36" t="s">
         <v>12</v>
       </c>
@@ -42847,7 +42847,7 @@
       </c>
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A175" s="48"/>
+      <c r="A175" s="50"/>
       <c r="B175" s="36" t="s">
         <v>13</v>
       </c>
@@ -42904,7 +42904,7 @@
       </c>
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A176" s="48"/>
+      <c r="A176" s="50"/>
       <c r="B176" s="36" t="s">
         <v>14</v>
       </c>
@@ -42961,7 +42961,7 @@
       </c>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A177" s="48"/>
+      <c r="A177" s="50"/>
       <c r="B177" s="36" t="s">
         <v>15</v>
       </c>
@@ -43019,17 +43019,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="A34:A49"/>
-    <mergeCell ref="A50:A65"/>
-    <mergeCell ref="A66:A81"/>
     <mergeCell ref="A162:A177"/>
     <mergeCell ref="A82:A97"/>
     <mergeCell ref="A98:A113"/>
     <mergeCell ref="A114:A129"/>
     <mergeCell ref="A130:A145"/>
     <mergeCell ref="A146:A161"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="A34:A49"/>
+    <mergeCell ref="A50:A65"/>
+    <mergeCell ref="A66:A81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -43040,7 +43040,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45396,7 +45396,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45455,7 +45455,7 @@
         <v>0.5</v>
       </c>
       <c r="D2" s="12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E2" s="12">
         <v>1</v>
@@ -45487,7 +45487,7 @@
         <v>0.5</v>
       </c>
       <c r="D3" s="12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E3" s="12">
         <v>1</v>
@@ -45519,7 +45519,7 @@
         <v>0.5</v>
       </c>
       <c r="D4" s="12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E4" s="12">
         <v>1</v>
@@ -45551,7 +45551,7 @@
         <v>0.5</v>
       </c>
       <c r="D5" s="12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E5" s="12">
         <v>1</v>
@@ -45583,7 +45583,7 @@
         <v>0.5</v>
       </c>
       <c r="D6" s="12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E6" s="12">
         <v>1</v>
@@ -45615,7 +45615,7 @@
         <v>0.5</v>
       </c>
       <c r="D7" s="12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E7" s="12">
         <v>1</v>
@@ -45647,7 +45647,7 @@
         <v>0.5</v>
       </c>
       <c r="D8" s="12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E8" s="12">
         <v>1</v>
@@ -45679,7 +45679,7 @@
         <v>0.5</v>
       </c>
       <c r="D9" s="12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E9" s="12">
         <v>1</v>
@@ -45711,7 +45711,7 @@
         <v>0.5</v>
       </c>
       <c r="D10" s="12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E10" s="12">
         <v>1</v>
@@ -45743,7 +45743,7 @@
         <v>0.5</v>
       </c>
       <c r="D11" s="12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E11" s="12">
         <v>1</v>
@@ -45775,7 +45775,7 @@
         <v>0.5</v>
       </c>
       <c r="D12" s="12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E12" s="12">
         <v>1</v>
@@ -45806,7 +45806,7 @@
   <dimension ref="A1:J125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="B17:C17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47460,7 +47460,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E19" sqref="E19:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47469,7 +47469,7 @@
     <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -47479,17 +47479,17 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -47534,7 +47534,7 @@
         <v>0.5</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0.11</v>
@@ -47566,7 +47566,7 @@
         <v>0.5</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0.11</v>
@@ -47598,7 +47598,7 @@
         <v>0.5</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0.11</v>
@@ -47630,7 +47630,7 @@
         <v>0.5</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0.11</v>
@@ -47662,7 +47662,7 @@
         <v>0.5</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0.11</v>
@@ -47694,7 +47694,7 @@
         <v>0.5</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0.11</v>
@@ -47726,7 +47726,7 @@
         <v>0.5</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0.11</v>
@@ -47758,7 +47758,7 @@
         <v>0.5</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0.11</v>
@@ -47790,7 +47790,7 @@
         <v>0.5</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0.11</v>
@@ -47822,7 +47822,7 @@
         <v>0.5</v>
       </c>
       <c r="D12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0.11</v>
@@ -47854,7 +47854,7 @@
         <v>0.5</v>
       </c>
       <c r="D13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0.11</v>
@@ -47887,8 +47887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N249"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47954,7 +47954,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="38" t="s">
@@ -47994,7 +47994,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="39" t="s">
         <v>89</v>
       </c>
@@ -48032,7 +48032,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="39" t="s">
         <v>90</v>
       </c>
@@ -48070,7 +48070,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="39" t="s">
         <v>88</v>
       </c>
@@ -48108,7 +48108,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="39" t="s">
         <v>91</v>
       </c>
@@ -48146,7 +48146,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="42" t="s">
         <v>86</v>
       </c>
@@ -48184,7 +48184,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="50" t="s">
         <v>71</v>
       </c>
       <c r="B8" s="43" t="s">
@@ -48224,7 +48224,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="44" t="s">
         <v>89</v>
       </c>
@@ -48260,7 +48260,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="44" t="s">
         <v>90</v>
       </c>
@@ -48296,7 +48296,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="44" t="s">
         <v>88</v>
       </c>
@@ -48332,7 +48332,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="44" t="s">
         <v>91</v>
       </c>
@@ -48368,7 +48368,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="45" t="s">
         <v>86</v>
       </c>
@@ -48406,7 +48406,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="50" t="s">
         <v>72</v>
       </c>
       <c r="B14" s="38" t="s">
@@ -48444,7 +48444,7 @@
       <c r="N14" s="23"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="39" t="s">
         <v>89</v>
       </c>
@@ -48482,7 +48482,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="39" t="s">
         <v>90</v>
       </c>
@@ -48520,7 +48520,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="39" t="s">
         <v>88</v>
       </c>
@@ -48558,7 +48558,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="39" t="s">
         <v>91</v>
       </c>
@@ -48596,7 +48596,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="42" t="s">
         <v>86</v>
       </c>
@@ -48634,7 +48634,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="50" t="s">
         <v>73</v>
       </c>
       <c r="B20" s="43" t="s">
@@ -48674,7 +48674,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="44" t="s">
         <v>89</v>
       </c>
@@ -48710,7 +48710,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="44" t="s">
         <v>90</v>
       </c>
@@ -48746,7 +48746,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="44" t="s">
         <v>88</v>
       </c>
@@ -48782,7 +48782,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="44" t="s">
         <v>91</v>
       </c>
@@ -48818,7 +48818,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="45" t="s">
         <v>86</v>
       </c>
@@ -48856,7 +48856,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="50" t="s">
         <v>74</v>
       </c>
       <c r="B26" s="38" t="s">
@@ -48896,7 +48896,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="39" t="s">
         <v>89</v>
       </c>
@@ -48934,7 +48934,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="39" t="s">
         <v>90</v>
       </c>
@@ -48972,7 +48972,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="39" t="s">
         <v>88</v>
       </c>
@@ -49010,7 +49010,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="39" t="s">
         <v>91</v>
       </c>
@@ -49048,7 +49048,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="42" t="s">
         <v>86</v>
       </c>
@@ -49086,7 +49086,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="50" t="s">
         <v>75</v>
       </c>
       <c r="B32" s="43" t="s">
@@ -49126,7 +49126,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="44" t="s">
         <v>89</v>
       </c>
@@ -49162,7 +49162,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
+      <c r="A34" s="50"/>
       <c r="B34" s="44" t="s">
         <v>90</v>
       </c>
@@ -49198,7 +49198,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="44" t="s">
         <v>88</v>
       </c>
@@ -49234,7 +49234,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="44" t="s">
         <v>91</v>
       </c>
@@ -49270,7 +49270,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="45" t="s">
         <v>86</v>
       </c>
@@ -49308,7 +49308,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="48" t="s">
+      <c r="A38" s="50" t="s">
         <v>76</v>
       </c>
       <c r="B38" s="38" t="s">
@@ -49348,7 +49348,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
+      <c r="A39" s="50"/>
       <c r="B39" s="39" t="s">
         <v>89</v>
       </c>
@@ -49386,7 +49386,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
+      <c r="A40" s="50"/>
       <c r="B40" s="39" t="s">
         <v>90</v>
       </c>
@@ -49424,7 +49424,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
+      <c r="A41" s="50"/>
       <c r="B41" s="39" t="s">
         <v>88</v>
       </c>
@@ -49462,7 +49462,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
+      <c r="A42" s="50"/>
       <c r="B42" s="39" t="s">
         <v>91</v>
       </c>
@@ -49500,7 +49500,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
+      <c r="A43" s="50"/>
       <c r="B43" s="42" t="s">
         <v>86</v>
       </c>
@@ -49538,7 +49538,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="48" t="s">
+      <c r="A44" s="50" t="s">
         <v>77</v>
       </c>
       <c r="B44" s="43" t="s">
@@ -49548,7 +49548,7 @@
         <v>48</v>
       </c>
       <c r="D44" s="34">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E44" s="20">
         <v>1</v>
@@ -49578,7 +49578,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
+      <c r="A45" s="50"/>
       <c r="B45" s="44" t="s">
         <v>92</v>
       </c>
@@ -49586,7 +49586,7 @@
         <v>93</v>
       </c>
       <c r="D45" s="34">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="E45" s="20">
         <v>1</v>
@@ -49612,7 +49612,7 @@
       <c r="N45" s="21"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
+      <c r="A46" s="50"/>
       <c r="B46" s="44" t="s">
         <v>90</v>
       </c>
@@ -49620,7 +49620,7 @@
         <v>83</v>
       </c>
       <c r="D46" s="34">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="E46" s="20">
         <v>1</v>
@@ -49644,7 +49644,7 @@
       <c r="N46" s="21"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="48"/>
+      <c r="A47" s="50"/>
       <c r="B47" s="44" t="s">
         <v>88</v>
       </c>
@@ -49652,7 +49652,7 @@
         <v>84</v>
       </c>
       <c r="D47" s="34">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E47" s="20">
         <v>1</v>
@@ -49676,7 +49676,7 @@
       <c r="N47" s="21"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="48"/>
+      <c r="A48" s="50"/>
       <c r="B48" s="44" t="s">
         <v>91</v>
       </c>
@@ -49684,7 +49684,7 @@
         <v>85</v>
       </c>
       <c r="D48" s="34">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E48" s="20">
         <v>1</v>
@@ -49708,7 +49708,7 @@
       <c r="N48" s="21"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
+      <c r="A49" s="50"/>
       <c r="B49" s="45" t="s">
         <v>86</v>
       </c>
@@ -49716,7 +49716,7 @@
         <v>87</v>
       </c>
       <c r="D49" s="34">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E49" s="20">
         <v>1</v>
@@ -49742,7 +49742,7 @@
       <c r="N49" s="21"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="48" t="s">
+      <c r="A50" s="50" t="s">
         <v>78</v>
       </c>
       <c r="B50" s="38" t="s">
@@ -49752,7 +49752,7 @@
         <v>48</v>
       </c>
       <c r="D50" s="34">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E50" s="22">
         <v>1</v>
@@ -49782,7 +49782,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="48"/>
+      <c r="A51" s="50"/>
       <c r="B51" s="46" t="s">
         <v>92</v>
       </c>
@@ -49790,7 +49790,7 @@
         <v>93</v>
       </c>
       <c r="D51" s="34">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E51" s="22">
         <v>1</v>
@@ -49815,12 +49815,10 @@
       <c r="M51" s="23">
         <v>43945</v>
       </c>
-      <c r="N51" s="23">
-        <v>43976</v>
-      </c>
+      <c r="N51" s="23"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="48"/>
+      <c r="A52" s="50"/>
       <c r="B52" s="39" t="s">
         <v>90</v>
       </c>
@@ -49828,7 +49826,7 @@
         <v>83</v>
       </c>
       <c r="D52" s="34">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E52" s="22">
         <v>1</v>
@@ -49850,13 +49848,11 @@
       </c>
       <c r="K52" s="40"/>
       <c r="L52" s="40"/>
-      <c r="M52" s="23">
-        <v>43976</v>
-      </c>
+      <c r="M52" s="23"/>
       <c r="N52" s="23"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="48"/>
+      <c r="A53" s="50"/>
       <c r="B53" s="39" t="s">
         <v>88</v>
       </c>
@@ -49864,7 +49860,7 @@
         <v>84</v>
       </c>
       <c r="D53" s="34">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E53" s="22">
         <v>1</v>
@@ -49890,7 +49886,7 @@
       <c r="N53" s="23"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="48"/>
+      <c r="A54" s="50"/>
       <c r="B54" s="39" t="s">
         <v>91</v>
       </c>
@@ -49898,7 +49894,7 @@
         <v>85</v>
       </c>
       <c r="D54" s="34">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E54" s="22">
         <v>1</v>
@@ -49924,7 +49920,7 @@
       <c r="N54" s="23"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="48"/>
+      <c r="A55" s="50"/>
       <c r="B55" s="42" t="s">
         <v>86</v>
       </c>
@@ -49932,7 +49928,7 @@
         <v>87</v>
       </c>
       <c r="D55" s="34">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E55" s="22">
         <v>1</v>
@@ -49958,7 +49954,7 @@
       <c r="N55" s="23"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="48" t="s">
+      <c r="A56" s="50" t="s">
         <v>79</v>
       </c>
       <c r="B56" s="43" t="s">
@@ -49998,7 +49994,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="48"/>
+      <c r="A57" s="50"/>
       <c r="B57" s="44" t="s">
         <v>89</v>
       </c>
@@ -50034,7 +50030,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="48"/>
+      <c r="A58" s="50"/>
       <c r="B58" s="44" t="s">
         <v>90</v>
       </c>
@@ -50070,7 +50066,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="48"/>
+      <c r="A59" s="50"/>
       <c r="B59" s="44" t="s">
         <v>88</v>
       </c>
@@ -50106,7 +50102,7 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="48"/>
+      <c r="A60" s="50"/>
       <c r="B60" s="44" t="s">
         <v>91</v>
       </c>
@@ -50142,7 +50138,7 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="48"/>
+      <c r="A61" s="50"/>
       <c r="B61" s="45" t="s">
         <v>86</v>
       </c>
@@ -50180,7 +50176,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="48" t="s">
+      <c r="A62" s="50" t="s">
         <v>80</v>
       </c>
       <c r="B62" s="38" t="s">
@@ -50220,7 +50216,7 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="48"/>
+      <c r="A63" s="50"/>
       <c r="B63" s="39" t="s">
         <v>89</v>
       </c>
@@ -50258,7 +50254,7 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="48"/>
+      <c r="A64" s="50"/>
       <c r="B64" s="39" t="s">
         <v>90</v>
       </c>
@@ -50296,7 +50292,7 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="48"/>
+      <c r="A65" s="50"/>
       <c r="B65" s="39" t="s">
         <v>88</v>
       </c>
@@ -50334,7 +50330,7 @@
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="48"/>
+      <c r="A66" s="50"/>
       <c r="B66" s="39" t="s">
         <v>91</v>
       </c>
@@ -50372,7 +50368,7 @@
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="48"/>
+      <c r="A67" s="50"/>
       <c r="B67" s="42" t="s">
         <v>86</v>
       </c>
@@ -51160,15 +51156,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12" style="50" customWidth="1"/>
+    <col min="5" max="5" width="12" style="49" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" customWidth="1"/>
@@ -51194,7 +51190,7 @@
       <c r="D1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="48" t="s">
         <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -51250,7 +51246,7 @@
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" s="50">
+      <c r="E2" s="49">
         <v>20000</v>
       </c>
       <c r="F2">
@@ -51276,7 +51272,7 @@
         <v>0.3</v>
       </c>
       <c r="M2">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -51307,7 +51303,7 @@
       <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="49">
         <v>20000</v>
       </c>
       <c r="F3">
@@ -51333,7 +51329,7 @@
         <v>0.3</v>
       </c>
       <c r="M3">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -51364,7 +51360,7 @@
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="49">
         <v>20000</v>
       </c>
       <c r="F4">
@@ -51390,7 +51386,7 @@
         <v>0.3</v>
       </c>
       <c r="M4">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -51421,7 +51417,7 @@
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="49">
         <v>20000</v>
       </c>
       <c r="F5">
@@ -51447,7 +51443,7 @@
         <v>0.3</v>
       </c>
       <c r="M5">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -51478,7 +51474,7 @@
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="49">
         <v>20000</v>
       </c>
       <c r="F6">
@@ -51504,7 +51500,7 @@
         <v>0.3</v>
       </c>
       <c r="M6">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -51535,7 +51531,7 @@
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="49">
         <v>20000</v>
       </c>
       <c r="F7">
@@ -51561,7 +51557,7 @@
         <v>0.3</v>
       </c>
       <c r="M7">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -51592,7 +51588,7 @@
       <c r="D8">
         <v>3</v>
       </c>
-      <c r="E8" s="50">
+      <c r="E8" s="49">
         <v>20000</v>
       </c>
       <c r="F8">
@@ -51618,7 +51614,7 @@
         <v>0.3</v>
       </c>
       <c r="M8">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -51649,7 +51645,7 @@
       <c r="D9">
         <v>3</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E9" s="49">
         <v>20000</v>
       </c>
       <c r="F9">
@@ -51675,7 +51671,7 @@
         <v>0.3</v>
       </c>
       <c r="M9">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -51706,7 +51702,7 @@
       <c r="D10">
         <v>3</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="49">
         <v>20000</v>
       </c>
       <c r="F10">
@@ -51732,7 +51728,7 @@
         <v>0.3</v>
       </c>
       <c r="M10">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -51763,7 +51759,7 @@
       <c r="D11">
         <v>3</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="49">
         <v>20000</v>
       </c>
       <c r="F11">
@@ -51789,7 +51785,7 @@
         <v>0.3</v>
       </c>
       <c r="M11">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -51820,7 +51816,7 @@
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="E12" s="50">
+      <c r="E12" s="49">
         <v>20000</v>
       </c>
       <c r="F12">
@@ -51846,7 +51842,7 @@
         <v>0.3</v>
       </c>
       <c r="M12">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="N12">
         <v>0</v>

--- a/data/input_data_peru.xlsx
+++ b/data/input_data_peru.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom.walsh\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC942B8-6279-4F69-B5C2-2F245561EA86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFD1F90-5655-4972-9764-60B385D1F6D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="23595" yWindow="-3000" windowWidth="20445" windowHeight="10680" tabRatio="839" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-7380" windowWidth="29040" windowHeight="15840" tabRatio="839" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_sex" sheetId="1" r:id="rId1"/>
@@ -1112,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,55 +1185,55 @@
         <v>19</v>
       </c>
       <c r="C2" s="37">
-        <v>47.154000000000003</v>
+        <v>47154</v>
       </c>
       <c r="D2" s="37">
-        <v>50.488999999999997</v>
+        <v>50489</v>
       </c>
       <c r="E2" s="37">
-        <v>50.546999999999997</v>
+        <v>50547</v>
       </c>
       <c r="F2" s="37">
-        <v>44.040999999999997</v>
+        <v>44041</v>
       </c>
       <c r="G2" s="37">
-        <v>41.63</v>
+        <v>41630</v>
       </c>
       <c r="H2" s="37">
-        <v>39.481999999999999</v>
+        <v>39482</v>
       </c>
       <c r="I2" s="37">
-        <v>38.049999999999997</v>
+        <v>38050</v>
       </c>
       <c r="J2" s="37">
-        <v>36.478000000000002</v>
+        <v>36478</v>
       </c>
       <c r="K2" s="37">
-        <v>34.554000000000002</v>
+        <v>34554</v>
       </c>
       <c r="L2" s="37">
-        <v>31.34</v>
+        <v>31340</v>
       </c>
       <c r="M2" s="37">
-        <v>27.709</v>
+        <v>27709</v>
       </c>
       <c r="N2" s="37">
-        <v>23.198</v>
+        <v>23198</v>
       </c>
       <c r="O2" s="37">
-        <v>18.334</v>
+        <v>18334</v>
       </c>
       <c r="P2" s="37">
-        <v>15.445</v>
+        <v>15445</v>
       </c>
       <c r="Q2" s="37">
-        <v>13.042999999999999</v>
+        <v>13043</v>
       </c>
       <c r="R2" s="37">
-        <v>22.600999999999999</v>
+        <v>22601</v>
       </c>
       <c r="S2" s="37">
-        <v>534.10100000000011</v>
+        <v>534101.00000000012</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1242,55 +1242,55 @@
         <v>20</v>
       </c>
       <c r="C3" s="37">
-        <v>45.81989757314615</v>
+        <v>45819.897573146147</v>
       </c>
       <c r="D3" s="37">
-        <v>49.060713784570943</v>
+        <v>49060.713784570944</v>
       </c>
       <c r="E3" s="37">
-        <v>49.117388642282904</v>
+        <v>49117.388642282902</v>
       </c>
       <c r="F3" s="37">
-        <v>44.89176671480859</v>
+        <v>44891.766714808589</v>
       </c>
       <c r="G3" s="37">
-        <v>42.433983753091304</v>
+        <v>42433.983753091306</v>
       </c>
       <c r="H3" s="37">
-        <v>40.245249532100111</v>
+        <v>40245.249532100112</v>
       </c>
       <c r="I3" s="37">
-        <v>39.785689263739073</v>
+        <v>39785.68926373907</v>
       </c>
       <c r="J3" s="37">
-        <v>38.142349536839937</v>
+        <v>38142.349536839938</v>
       </c>
       <c r="K3" s="37">
-        <v>36.12996119942099</v>
+        <v>36129.961199420992</v>
       </c>
       <c r="L3" s="37">
-        <v>32.752386830199221</v>
+        <v>32752.386830199222</v>
       </c>
       <c r="M3" s="37">
-        <v>28.957600744338681</v>
+        <v>28957.600744338681</v>
       </c>
       <c r="N3" s="37">
-        <v>24.244012425462085</v>
+        <v>24244.012425462086</v>
       </c>
       <c r="O3" s="37">
-        <v>20.556418651238278</v>
+        <v>20556.418651238277</v>
       </c>
       <c r="P3" s="37">
-        <v>17.316844201791376</v>
+        <v>17316.844201791377</v>
       </c>
       <c r="Q3" s="37">
-        <v>14.623805888863989</v>
+        <v>14623.80588886399</v>
       </c>
       <c r="R3" s="37">
-        <v>25.339931258106354</v>
+        <v>25339.931258106353</v>
       </c>
       <c r="S3" s="37">
-        <v>549.41799999999989</v>
+        <v>549417.99999999988</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -1301,55 +1301,55 @@
         <v>19</v>
       </c>
       <c r="C4" s="37">
-        <v>55.906909707420454</v>
+        <v>55906.909707420455</v>
       </c>
       <c r="D4" s="37">
-        <v>57.102248340422932</v>
+        <v>57102.248340422935</v>
       </c>
       <c r="E4" s="37">
-        <v>54.014841952156608</v>
+        <v>54014.84195215661</v>
       </c>
       <c r="F4" s="37">
-        <v>54.341990309108013</v>
+        <v>54341.990309108012</v>
       </c>
       <c r="G4" s="37">
-        <v>60.613173392641215</v>
+        <v>60613.173392641213</v>
       </c>
       <c r="H4" s="37">
-        <v>58.476836298250781</v>
+        <v>58476.836298250782</v>
       </c>
       <c r="I4" s="37">
-        <v>53.193364446731465</v>
+        <v>53193.364446731466</v>
       </c>
       <c r="J4" s="37">
-        <v>50.329505690734692</v>
+        <v>50329.505690734695</v>
       </c>
       <c r="K4" s="37">
-        <v>46.869129862533839</v>
+        <v>46869.129862533839</v>
       </c>
       <c r="L4" s="37">
-        <v>40.172047882136276</v>
+        <v>40172.047882136278</v>
       </c>
       <c r="M4" s="37">
-        <v>34.904602701043586</v>
+        <v>34904.602701043586</v>
       </c>
       <c r="N4" s="37">
-        <v>29.386349416820131</v>
+        <v>29386.349416820132</v>
       </c>
       <c r="O4" s="37">
-        <v>24.259319316993846</v>
+        <v>24259.319316993846</v>
       </c>
       <c r="P4" s="37">
-        <v>18.746879776977583</v>
+        <v>18746.879776977581</v>
       </c>
       <c r="Q4" s="37">
-        <v>14.42901707515391</v>
+        <v>14429.01707515391</v>
       </c>
       <c r="R4" s="37">
-        <v>24.804783830874669</v>
+        <v>24804.783830874669</v>
       </c>
       <c r="S4" s="37">
-        <v>677.55100000000004</v>
+        <v>677551</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1358,55 +1358,55 @@
         <v>20</v>
       </c>
       <c r="C5" s="37">
-        <v>53.864090292579547</v>
+        <v>53864.090292579545</v>
       </c>
       <c r="D5" s="37">
-        <v>55.015751659577063</v>
+        <v>55015.751659577065</v>
       </c>
       <c r="E5" s="37">
-        <v>52.041158047843389</v>
+        <v>52041.15804784339</v>
       </c>
       <c r="F5" s="37">
-        <v>55.266009690891998</v>
+        <v>55266.009690891995</v>
       </c>
       <c r="G5" s="37">
-        <v>61.643826607358797</v>
+        <v>61643.826607358795</v>
       </c>
       <c r="H5" s="37">
-        <v>59.471163701749227</v>
+        <v>59471.163701749225</v>
       </c>
       <c r="I5" s="37">
-        <v>57.470635553268536</v>
+        <v>57470.635553268534</v>
       </c>
       <c r="J5" s="37">
-        <v>54.376494309265304</v>
+        <v>54376.494309265305</v>
       </c>
       <c r="K5" s="37">
-        <v>50.637870137466159</v>
+        <v>50637.870137466161</v>
       </c>
       <c r="L5" s="37">
-        <v>44.397952117863731</v>
+        <v>44397.95211786373</v>
       </c>
       <c r="M5" s="37">
-        <v>38.576397298956422</v>
+        <v>38576.397298956421</v>
       </c>
       <c r="N5" s="37">
-        <v>32.477650583179873</v>
+        <v>32477.650583179871</v>
       </c>
       <c r="O5" s="37">
-        <v>26.530680683006157</v>
+        <v>26530.680683006158</v>
       </c>
       <c r="P5" s="37">
-        <v>20.50212022302242</v>
+        <v>20502.120223022419</v>
       </c>
       <c r="Q5" s="37">
-        <v>15.779982924846092</v>
+        <v>15779.982924846092</v>
       </c>
       <c r="R5" s="37">
-        <v>27.127216169125337</v>
+        <v>27127.216169125335</v>
       </c>
       <c r="S5" s="37">
-        <v>705.17900000000009</v>
+        <v>705179.00000000012</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1417,55 +1417,55 @@
         <v>19</v>
       </c>
       <c r="C6" s="37">
-        <v>40.067460869565224</v>
+        <v>40067.46086956522</v>
       </c>
       <c r="D6" s="37">
-        <v>42.674565797101451</v>
+        <v>42674.565797101452</v>
       </c>
       <c r="E6" s="37">
-        <v>40.914973333333336</v>
+        <v>40914.973333333335</v>
       </c>
       <c r="F6" s="37">
-        <v>38.020117334199469</v>
+        <v>38020.117334199465</v>
       </c>
       <c r="G6" s="37">
-        <v>43.231769046507381</v>
+        <v>43231.769046507383</v>
       </c>
       <c r="H6" s="37">
-        <v>40.87311361929315</v>
+        <v>40873.113619293152</v>
       </c>
       <c r="I6" s="37">
-        <v>37.475869987072066</v>
+        <v>37475.869987072067</v>
       </c>
       <c r="J6" s="37">
-        <v>36.41218223460838</v>
+        <v>36412.182234608379</v>
       </c>
       <c r="K6" s="37">
-        <v>33.657947778319546</v>
+        <v>33657.947778319547</v>
       </c>
       <c r="L6" s="37">
-        <v>28.609514469859725</v>
+        <v>28609.514469859725</v>
       </c>
       <c r="M6" s="37">
-        <v>24.892148110703904</v>
+        <v>24892.148110703904</v>
       </c>
       <c r="N6" s="37">
-        <v>21.44233741943637</v>
+        <v>21442.337419436371</v>
       </c>
       <c r="O6" s="37">
-        <v>17.855805029352776</v>
+        <v>17855.805029352778</v>
       </c>
       <c r="P6" s="37">
-        <v>13.802082463846958</v>
+        <v>13802.082463846958</v>
       </c>
       <c r="Q6" s="37">
-        <v>10.033675471146585</v>
+        <v>10033.675471146586</v>
       </c>
       <c r="R6" s="37">
-        <v>15.818437035653677</v>
+        <v>15818.437035653677</v>
       </c>
       <c r="S6" s="37">
-        <v>485.78199999999998</v>
+        <v>485782</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -1474,55 +1474,55 @@
         <v>20</v>
       </c>
       <c r="C7" s="37">
-        <v>38.742539130434778</v>
+        <v>38742.53913043478</v>
       </c>
       <c r="D7" s="37">
-        <v>41.263434202898551</v>
+        <v>41263.434202898548</v>
       </c>
       <c r="E7" s="37">
-        <v>39.562026666666668</v>
+        <v>39562.026666666665</v>
       </c>
       <c r="F7" s="37">
-        <v>38.659882665800538</v>
+        <v>38659.882665800535</v>
       </c>
       <c r="G7" s="37">
-        <v>43.959230953492622</v>
+        <v>43959.230953492624</v>
       </c>
       <c r="H7" s="37">
-        <v>41.560886380706847</v>
+        <v>41560.886380706848</v>
       </c>
       <c r="I7" s="37">
-        <v>40.42213001292793</v>
+        <v>40422.130012927933</v>
       </c>
       <c r="J7" s="37">
-        <v>39.274817765391624</v>
+        <v>39274.817765391621</v>
       </c>
       <c r="K7" s="37">
-        <v>36.304052221680458</v>
+        <v>36304.05222168046</v>
       </c>
       <c r="L7" s="37">
-        <v>31.805485530140274</v>
+        <v>31805.485530140275</v>
       </c>
       <c r="M7" s="37">
-        <v>27.672851889296098</v>
+        <v>27672.851889296096</v>
       </c>
       <c r="N7" s="37">
-        <v>23.837662580563627</v>
+        <v>23837.662580563629</v>
       </c>
       <c r="O7" s="37">
-        <v>20.382194970647223</v>
+        <v>20382.194970647222</v>
       </c>
       <c r="P7" s="37">
-        <v>15.754917536153039</v>
+        <v>15754.91753615304</v>
       </c>
       <c r="Q7" s="37">
-        <v>11.453324528853415</v>
+        <v>11453.324528853414</v>
       </c>
       <c r="R7" s="37">
-        <v>18.056562964346323</v>
+        <v>18056.562964346322</v>
       </c>
       <c r="S7" s="37">
-        <v>508.71200000000005</v>
+        <v>508712.00000000006</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1533,55 +1533,55 @@
         <v>19</v>
       </c>
       <c r="C8" s="37">
-        <v>51.822554586113355</v>
+        <v>51822.554586113358</v>
       </c>
       <c r="D8" s="37">
-        <v>54.822802392648541</v>
+        <v>54822.80239264854</v>
       </c>
       <c r="E8" s="37">
-        <v>59.838643021238127</v>
+        <v>59838.643021238124</v>
       </c>
       <c r="F8" s="37">
-        <v>55.07332347155355</v>
+        <v>55073.323471553551</v>
       </c>
       <c r="G8" s="37">
-        <v>50.435377811642589</v>
+        <v>50435.377811642589</v>
       </c>
       <c r="H8" s="37">
-        <v>46.93829871680385</v>
+        <v>46938.298716803853</v>
       </c>
       <c r="I8" s="37">
-        <v>44.43238071409997</v>
+        <v>44432.380714099971</v>
       </c>
       <c r="J8" s="37">
-        <v>41.996724375694434</v>
+        <v>41996.724375694437</v>
       </c>
       <c r="K8" s="37">
-        <v>38.580894910205593</v>
+        <v>38580.894910205592</v>
       </c>
       <c r="L8" s="37">
-        <v>33.973736149676057</v>
+        <v>33973.736149676057</v>
       </c>
       <c r="M8" s="37">
-        <v>30.620801401560229</v>
+        <v>30620.801401560228</v>
       </c>
       <c r="N8" s="37">
-        <v>25.129462448763718</v>
+        <v>25129.462448763719</v>
       </c>
       <c r="O8" s="37">
-        <v>18.68018519487314</v>
+        <v>18680.185194873138</v>
       </c>
       <c r="P8" s="37">
-        <v>14.539002877321476</v>
+        <v>14539.002877321476</v>
       </c>
       <c r="Q8" s="37">
-        <v>11.502292440491761</v>
+        <v>11502.292440491761</v>
       </c>
       <c r="R8" s="37">
-        <v>18.138519487313626</v>
+        <v>18138.519487313628</v>
       </c>
       <c r="S8" s="37">
-        <v>596.52499999999986</v>
+        <v>596524.99999999988</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1590,55 +1590,55 @@
         <v>20</v>
       </c>
       <c r="C9" s="37">
-        <v>50.06944541388664</v>
+        <v>50069.445413886642</v>
       </c>
       <c r="D9" s="37">
-        <v>52.968197607351456</v>
+        <v>52968.19760735146</v>
       </c>
       <c r="E9" s="37">
-        <v>57.814356978761879</v>
+        <v>57814.356978761876</v>
       </c>
       <c r="F9" s="37">
-        <v>56.582676528446456</v>
+        <v>56582.676528446456</v>
       </c>
       <c r="G9" s="37">
-        <v>51.817622188357412</v>
+        <v>51817.622188357411</v>
       </c>
       <c r="H9" s="37">
-        <v>48.224701283196154</v>
+        <v>48224.701283196155</v>
       </c>
       <c r="I9" s="37">
-        <v>45.77661928590004</v>
+        <v>45776.619285900037</v>
       </c>
       <c r="J9" s="37">
-        <v>43.267275624305562</v>
+        <v>43267.275624305563</v>
       </c>
       <c r="K9" s="37">
-        <v>39.748105089794407</v>
+        <v>39748.105089794408</v>
       </c>
       <c r="L9" s="37">
-        <v>34.755263850323949</v>
+        <v>34755.26385032395</v>
       </c>
       <c r="M9" s="37">
-        <v>31.325198598439776</v>
+        <v>31325.198598439776</v>
       </c>
       <c r="N9" s="37">
-        <v>25.707537551236285</v>
+        <v>25707.537551236284</v>
       </c>
       <c r="O9" s="37">
-        <v>21.082814805126866</v>
+        <v>21082.814805126865</v>
       </c>
       <c r="P9" s="37">
-        <v>16.408997122678528</v>
+        <v>16408.997122678527</v>
       </c>
       <c r="Q9" s="37">
-        <v>12.981707559508241</v>
+        <v>12981.707559508241</v>
       </c>
       <c r="R9" s="37">
-        <v>20.471480512686373</v>
+        <v>20471.480512686372</v>
       </c>
       <c r="S9" s="37">
-        <v>609.00200000000018</v>
+        <v>609002.00000000023</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1649,55 +1649,55 @@
         <v>19</v>
       </c>
       <c r="C10" s="37">
-        <v>56.996364834534845</v>
+        <v>56996.364834534841</v>
       </c>
       <c r="D10" s="37">
-        <v>59.39659142648302</v>
+        <v>59396.591426483021</v>
       </c>
       <c r="E10" s="37">
-        <v>60.825043738982124</v>
+        <v>60825.043738982124</v>
       </c>
       <c r="F10" s="37">
-        <v>55.856092586339507</v>
+        <v>55856.09258633951</v>
       </c>
       <c r="G10" s="37">
-        <v>52.565915699001387</v>
+        <v>52565.915699001387</v>
       </c>
       <c r="H10" s="37">
-        <v>48.268991714659116</v>
+        <v>48268.991714659118</v>
       </c>
       <c r="I10" s="37">
-        <v>44.983667586062019</v>
+        <v>44983.667586062016</v>
       </c>
       <c r="J10" s="37">
-        <v>41.394733101733877</v>
+        <v>41394.73310173388</v>
       </c>
       <c r="K10" s="37">
-        <v>36.349599312204099</v>
+        <v>36349.599312204096</v>
       </c>
       <c r="L10" s="37">
-        <v>32.314135326562827</v>
+        <v>32314.135326562828</v>
       </c>
       <c r="M10" s="37">
-        <v>29.039289715404305</v>
+        <v>29039.289715404306</v>
       </c>
       <c r="N10" s="37">
-        <v>24.31957495803287</v>
+        <v>24319.57495803287</v>
       </c>
       <c r="O10" s="37">
-        <v>19.513864567889851</v>
+        <v>19513.86456788985</v>
       </c>
       <c r="P10" s="37">
-        <v>15.403244965276546</v>
+        <v>15403.244965276546</v>
       </c>
       <c r="Q10" s="37">
-        <v>12.044049272545417</v>
+        <v>12044.049272545417</v>
       </c>
       <c r="R10" s="37">
-        <v>19.660841194288185</v>
+        <v>19660.841194288187</v>
       </c>
       <c r="S10" s="37">
-        <v>608.93200000000002</v>
+        <v>608932</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1706,55 +1706,55 @@
         <v>20</v>
       </c>
       <c r="C11" s="37">
-        <v>55.204635165465156</v>
+        <v>55204.635165465159</v>
       </c>
       <c r="D11" s="37">
-        <v>57.529408573516982</v>
+        <v>57529.408573516979</v>
       </c>
       <c r="E11" s="37">
-        <v>58.912956261017875</v>
+        <v>58912.956261017876</v>
       </c>
       <c r="F11" s="37">
-        <v>58.158907413660486</v>
+        <v>58158.907413660483</v>
       </c>
       <c r="G11" s="37">
-        <v>54.733084300998613</v>
+        <v>54733.084300998613</v>
       </c>
       <c r="H11" s="37">
-        <v>50.259008285340883</v>
+        <v>50259.008285340882</v>
       </c>
       <c r="I11" s="37">
-        <v>49.234332413937985</v>
+        <v>49234.332413937984</v>
       </c>
       <c r="J11" s="37">
-        <v>45.306266898266117</v>
+        <v>45306.26689826612</v>
       </c>
       <c r="K11" s="37">
-        <v>39.784400687795902</v>
+        <v>39784.400687795904</v>
       </c>
       <c r="L11" s="37">
-        <v>35.31686467343718</v>
+        <v>35316.86467343718</v>
       </c>
       <c r="M11" s="37">
-        <v>31.737710284595693</v>
+        <v>31737.710284595694</v>
       </c>
       <c r="N11" s="37">
-        <v>26.579425041967131</v>
+        <v>26579.42504196713</v>
       </c>
       <c r="O11" s="37">
-        <v>21.77713543211015</v>
+        <v>21777.13543211015</v>
       </c>
       <c r="P11" s="37">
-        <v>17.189755034723454</v>
+        <v>17189.755034723454</v>
       </c>
       <c r="Q11" s="37">
-        <v>13.440950727454583</v>
+        <v>13440.950727454583</v>
       </c>
       <c r="R11" s="37">
-        <v>21.941158805711812</v>
+        <v>21941.158805711813</v>
       </c>
       <c r="S11" s="37">
-        <v>637.10599999999999</v>
+        <v>637106</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1765,55 +1765,55 @@
         <v>19</v>
       </c>
       <c r="C12" s="37">
-        <v>82.282854081021043</v>
+        <v>82282.85408102104</v>
       </c>
       <c r="D12" s="37">
-        <v>8.6132255353672349</v>
+        <v>8613.2255353672354</v>
       </c>
       <c r="E12" s="37">
-        <v>82.809293938861884</v>
+        <v>82809.293938861883</v>
       </c>
       <c r="F12" s="37">
-        <v>71.438668541898338</v>
+        <v>71438.66854189834</v>
       </c>
       <c r="G12" s="37">
-        <v>76.92105933145811</v>
+        <v>76921.059331458106</v>
       </c>
       <c r="H12" s="37">
-        <v>68.879272126643556</v>
+        <v>68879.272126643555</v>
       </c>
       <c r="I12" s="37">
-        <v>62.828921984624827</v>
+        <v>62828.921984624831</v>
       </c>
       <c r="J12" s="37">
-        <v>58.014472804441347</v>
+        <v>58014.47280444135</v>
       </c>
       <c r="K12" s="37">
-        <v>53.635605210933825</v>
+        <v>53635.605210933827</v>
       </c>
       <c r="L12" s="37">
-        <v>47.457104842517282</v>
+        <v>47457.104842517285</v>
       </c>
       <c r="M12" s="37">
-        <v>41.836714216089426</v>
+        <v>41836.714216089429</v>
       </c>
       <c r="N12" s="37">
-        <v>35.873180941393279</v>
+        <v>35873.180941393279</v>
       </c>
       <c r="O12" s="37">
-        <v>28.829388071876274</v>
+        <v>28829.388071876274</v>
       </c>
       <c r="P12" s="37">
-        <v>22.561377533273014</v>
+        <v>22561.377533273015</v>
       </c>
       <c r="Q12" s="37">
-        <v>18.272344956425126</v>
+        <v>18272.344956425128</v>
       </c>
       <c r="R12" s="37">
-        <v>30.085889438425589</v>
+        <v>30085.889438425587</v>
       </c>
       <c r="S12" s="37">
-        <v>790.33937355524995</v>
+        <v>790339.37355525</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1822,55 +1822,55 @@
         <v>20</v>
       </c>
       <c r="C13" s="37">
-        <v>79.957145918978966</v>
+        <v>79957.14591897896</v>
       </c>
       <c r="D13" s="37">
-        <v>8.3697744646327639</v>
+        <v>8369.7744646327646</v>
       </c>
       <c r="E13" s="37">
-        <v>80.468706061138121</v>
+        <v>80468.706061138117</v>
       </c>
       <c r="F13" s="37">
-        <v>74.347331458101664</v>
+        <v>74347.33145810166</v>
       </c>
       <c r="G13" s="37">
-        <v>80.052940668541893</v>
+        <v>80052.940668541894</v>
       </c>
       <c r="H13" s="37">
-        <v>71.683727873356446</v>
+        <v>71683.727873356445</v>
       </c>
       <c r="I13" s="37">
-        <v>67.998078015375171</v>
+        <v>67998.078015375169</v>
       </c>
       <c r="J13" s="37">
-        <v>62.787527195558653</v>
+        <v>62787.52719555865</v>
       </c>
       <c r="K13" s="37">
-        <v>58.048394789066172</v>
+        <v>58048.394789066173</v>
       </c>
       <c r="L13" s="37">
-        <v>52.119895157482709</v>
+        <v>52119.895157482708</v>
       </c>
       <c r="M13" s="37">
-        <v>45.947285783910566</v>
+        <v>45947.285783910564</v>
       </c>
       <c r="N13" s="37">
-        <v>39.397819058606714</v>
+        <v>39397.819058606714</v>
       </c>
       <c r="O13" s="37">
-        <v>32.821611928123723</v>
+        <v>32821.611928123726</v>
       </c>
       <c r="P13" s="37">
-        <v>25.685622466726986</v>
+        <v>25685.622466726985</v>
       </c>
       <c r="Q13" s="37">
-        <v>20.802655043574873</v>
+        <v>20802.655043574872</v>
       </c>
       <c r="R13" s="37">
-        <v>34.252110561574419</v>
+        <v>34252.110561574416</v>
       </c>
       <c r="S13" s="37">
-        <v>834.74062644474975</v>
+        <v>834740.62644474977</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1881,55 +1881,55 @@
         <v>19</v>
       </c>
       <c r="C14" s="37">
-        <v>54.465971211930437</v>
+        <v>54465.971211930439</v>
       </c>
       <c r="D14" s="37">
-        <v>56.90354722821931</v>
+        <v>56903.547228219308</v>
       </c>
       <c r="E14" s="37">
-        <v>54.162481559850256</v>
+        <v>54162.481559850254</v>
       </c>
       <c r="F14" s="37">
-        <v>49.813183847980994</v>
+        <v>49813.183847980996</v>
       </c>
       <c r="G14" s="37">
-        <v>50.41580998303359</v>
+        <v>50415.809983033592</v>
       </c>
       <c r="H14" s="37">
-        <v>43.805006168985415</v>
+        <v>43805.006168985412</v>
       </c>
       <c r="I14" s="37">
-        <v>39.116312635844153</v>
+        <v>39116.312635844151</v>
       </c>
       <c r="J14" s="37">
-        <v>37.81966006857143</v>
+        <v>37819.660068571429</v>
       </c>
       <c r="K14" s="37">
-        <v>36.19202729558441</v>
+        <v>36192.027295584412</v>
       </c>
       <c r="L14" s="37">
-        <v>32.292251569521191</v>
+        <v>32292.251569521191</v>
       </c>
       <c r="M14" s="37">
-        <v>28.788761416654129</v>
+        <v>28788.761416654128</v>
       </c>
       <c r="N14" s="37">
-        <v>25.387987013824688</v>
+        <v>25387.987013824688</v>
       </c>
       <c r="O14" s="37">
-        <v>21.46336154921142</v>
+        <v>21463.361549211419</v>
       </c>
       <c r="P14" s="37">
-        <v>16.04013631463366</v>
+        <v>16040.136314633661</v>
       </c>
       <c r="Q14" s="37">
-        <v>12.746103214214415</v>
+        <v>12746.103214214414</v>
       </c>
       <c r="R14" s="37">
-        <v>21.31239892194051</v>
+        <v>21312.398921940508</v>
       </c>
       <c r="S14" s="37">
-        <v>580.72500000000002</v>
+        <v>580725</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1938,55 +1938,55 @@
         <v>20</v>
       </c>
       <c r="C15" s="37">
-        <v>52.675028788069561</v>
+        <v>52675.028788069561</v>
       </c>
       <c r="D15" s="37">
-        <v>55.03245277178069</v>
+        <v>55032.452771780692</v>
       </c>
       <c r="E15" s="37">
-        <v>52.381518440149748</v>
+        <v>52381.518440149746</v>
       </c>
       <c r="F15" s="37">
-        <v>52.106816152019007</v>
+        <v>52106.816152019004</v>
       </c>
       <c r="G15" s="37">
-        <v>52.737190016966409</v>
+        <v>52737.190016966408</v>
       </c>
       <c r="H15" s="37">
-        <v>45.821993831014588</v>
+        <v>45821.993831014588</v>
       </c>
       <c r="I15" s="37">
-        <v>44.08468736415584</v>
+        <v>44084.687364155841</v>
       </c>
       <c r="J15" s="37">
-        <v>42.623339931428568</v>
+        <v>42623.339931428571</v>
       </c>
       <c r="K15" s="37">
-        <v>40.788972704415578</v>
+        <v>40788.972704415581</v>
       </c>
       <c r="L15" s="37">
-        <v>37.186748430478808</v>
+        <v>37186.748430478809</v>
       </c>
       <c r="M15" s="37">
-        <v>33.152238583345877</v>
+        <v>33152.238583345876</v>
       </c>
       <c r="N15" s="37">
-        <v>29.236012986175311</v>
+        <v>29236.012986175312</v>
       </c>
       <c r="O15" s="37">
-        <v>23.60663845078858</v>
+        <v>23606.638450788581</v>
       </c>
       <c r="P15" s="37">
-        <v>17.641863685366342</v>
+        <v>17641.863685366341</v>
       </c>
       <c r="Q15" s="37">
-        <v>14.018896785785588</v>
+        <v>14018.896785785588</v>
       </c>
       <c r="R15" s="37">
-        <v>23.440601078059494</v>
+        <v>23440.601078059495</v>
       </c>
       <c r="S15" s="37">
-        <v>616.53499999999997</v>
+        <v>616535</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -1997,55 +1997,55 @@
         <v>19</v>
       </c>
       <c r="C16" s="37">
-        <v>353.24076163030571</v>
+        <v>353240.76163030573</v>
       </c>
       <c r="D16" s="37">
-        <v>368.59382090895105</v>
+        <v>368593.82090895105</v>
       </c>
       <c r="E16" s="37">
-        <v>361.68641746074309</v>
+        <v>361686.41746074311</v>
       </c>
       <c r="F16" s="37">
-        <v>363.67293722801344</v>
+        <v>363672.93722801341</v>
       </c>
       <c r="G16" s="37">
-        <v>423.21400908040641</v>
+        <v>423214.00908040639</v>
       </c>
       <c r="H16" s="37">
-        <v>410.89105369158017</v>
+        <v>410891.05369158019</v>
       </c>
       <c r="I16" s="37">
-        <v>374.95119260014053</v>
+        <v>374951.19260014052</v>
       </c>
       <c r="J16" s="37">
-        <v>355.01188968005044</v>
+        <v>355011.88968005043</v>
       </c>
       <c r="K16" s="37">
-        <v>328.21991771980908</v>
+        <v>328219.91771980905</v>
       </c>
       <c r="L16" s="37">
-        <v>278.8051205688439</v>
+        <v>278805.12056884391</v>
       </c>
       <c r="M16" s="37">
-        <v>242.11737305841467</v>
+        <v>242117.37305841467</v>
       </c>
       <c r="N16" s="37">
-        <v>205.83550637274143</v>
+        <v>205835.50637274142</v>
       </c>
       <c r="O16" s="37">
-        <v>168.25745470033419</v>
+        <v>168257.4547003342</v>
       </c>
       <c r="P16" s="37">
-        <v>131.07159653406566</v>
+        <v>131071.59653406567</v>
       </c>
       <c r="Q16" s="37">
-        <v>98.178462093411753</v>
+        <v>98178.462093411756</v>
       </c>
       <c r="R16" s="37">
-        <v>162.02948667218837</v>
+        <v>162029.48667218836</v>
       </c>
       <c r="S16" s="37">
-        <v>4625.777</v>
+        <v>4625777</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -2054,55 +2054,55 @@
         <v>20</v>
       </c>
       <c r="C17" s="37">
-        <v>342.10223836969425</v>
+        <v>342102.23836969427</v>
       </c>
       <c r="D17" s="37">
-        <v>356.97117909104895</v>
+        <v>356971.17909104895</v>
       </c>
       <c r="E17" s="37">
-        <v>350.28158253925687</v>
+        <v>350281.58253925689</v>
       </c>
       <c r="F17" s="37">
-        <v>371.14206277198662</v>
+        <v>371142.06277198659</v>
       </c>
       <c r="G17" s="37">
-        <v>431.90599091959359</v>
+        <v>431905.99091959361</v>
       </c>
       <c r="H17" s="37">
-        <v>419.32994630841972</v>
+        <v>419329.94630841975</v>
       </c>
       <c r="I17" s="37">
-        <v>400.15680739985942</v>
+        <v>400156.80739985942</v>
       </c>
       <c r="J17" s="37">
-        <v>378.87711031994951</v>
+        <v>378877.11031994951</v>
       </c>
       <c r="K17" s="37">
-        <v>350.28408228019089</v>
+        <v>350284.08228019089</v>
       </c>
       <c r="L17" s="37">
-        <v>310.56687943115611</v>
+        <v>310566.87943115609</v>
       </c>
       <c r="M17" s="37">
-        <v>269.69962694158534</v>
+        <v>269699.62694158533</v>
       </c>
       <c r="N17" s="37">
-        <v>229.28449362725857</v>
+        <v>229284.49362725858</v>
       </c>
       <c r="O17" s="37">
-        <v>195.16754529966579</v>
+        <v>195167.5452996658</v>
       </c>
       <c r="P17" s="37">
-        <v>152.03440346593433</v>
+        <v>152034.40346593433</v>
       </c>
       <c r="Q17" s="37">
-        <v>113.88053790658824</v>
+        <v>113880.53790658824</v>
       </c>
       <c r="R17" s="37">
-        <v>187.94351332781164</v>
+        <v>187943.51332781164</v>
       </c>
       <c r="S17" s="37">
-        <v>4859.6279999999997</v>
+        <v>4859628</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -2113,55 +2113,55 @@
         <v>19</v>
       </c>
       <c r="C18" s="37">
-        <v>51.252220245156188</v>
+        <v>51252.22024515619</v>
       </c>
       <c r="D18" s="37">
-        <v>58.050144980723616</v>
+        <v>58050.144980723613</v>
       </c>
       <c r="E18" s="37">
-        <v>55.029634774120211</v>
+        <v>55029.634774120212</v>
       </c>
       <c r="F18" s="37">
-        <v>36.598981958079065</v>
+        <v>36598.981958079064</v>
       </c>
       <c r="G18" s="37">
-        <v>30.761906871849298</v>
+        <v>30761.9068718493</v>
       </c>
       <c r="H18" s="37">
-        <v>30.853111170071639</v>
+        <v>30853.111170071639</v>
       </c>
       <c r="I18" s="37">
-        <v>30.074370212332422</v>
+        <v>30074.370212332422</v>
       </c>
       <c r="J18" s="37">
-        <v>27.090214537848869</v>
+        <v>27090.214537848868</v>
       </c>
       <c r="K18" s="37">
-        <v>25.139415249818711</v>
+        <v>25139.41524981871</v>
       </c>
       <c r="L18" s="37">
-        <v>22.31806995708919</v>
+        <v>22318.069957089188</v>
       </c>
       <c r="M18" s="37">
-        <v>19.538285579474032</v>
+        <v>19538.285579474032</v>
       </c>
       <c r="N18" s="37">
-        <v>16.725644463436783</v>
+        <v>16725.644463436784</v>
       </c>
       <c r="O18" s="37">
-        <v>13.117250437828371</v>
+        <v>13117.250437828372</v>
       </c>
       <c r="P18" s="37">
-        <v>10.053416812609457</v>
+        <v>10053.416812609457</v>
       </c>
       <c r="Q18" s="37">
-        <v>6.9843467600700526</v>
+        <v>6984.3467600700524</v>
       </c>
       <c r="R18" s="37">
-        <v>10.20998598949212</v>
+        <v>10209.985989492119</v>
       </c>
       <c r="S18" s="37">
-        <v>443.79700000000003</v>
+        <v>443797</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -2170,55 +2170,55 @@
         <v>20</v>
       </c>
       <c r="C19" s="37">
-        <v>49.707779754843813</v>
+        <v>49707.77975484381</v>
       </c>
       <c r="D19" s="37">
-        <v>56.300855019276383</v>
+        <v>56300.855019276387</v>
       </c>
       <c r="E19" s="37">
-        <v>53.371365225879785</v>
+        <v>53371.365225879788</v>
       </c>
       <c r="F19" s="37">
-        <v>39.244018041920938</v>
+        <v>39244.018041920936</v>
       </c>
       <c r="G19" s="37">
-        <v>32.985093128150702</v>
+        <v>32985.0931281507</v>
       </c>
       <c r="H19" s="37">
-        <v>33.082888829928365</v>
+        <v>33082.888829928364</v>
       </c>
       <c r="I19" s="37">
-        <v>30.897629787667579</v>
+        <v>30897.629787667578</v>
       </c>
       <c r="J19" s="37">
-        <v>27.831785462151132</v>
+        <v>27831.785462151132</v>
       </c>
       <c r="K19" s="37">
-        <v>25.827584750181291</v>
+        <v>25827.58475018129</v>
       </c>
       <c r="L19" s="37">
-        <v>20.474930042910813</v>
+        <v>20474.930042910812</v>
       </c>
       <c r="M19" s="37">
-        <v>17.924714420525969</v>
+        <v>17924.714420525968</v>
       </c>
       <c r="N19" s="37">
-        <v>15.344355536563217</v>
+        <v>15344.355536563216</v>
       </c>
       <c r="O19" s="37">
-        <v>11.932749562171628</v>
+        <v>11932.749562171628</v>
       </c>
       <c r="P19" s="37">
-        <v>9.1455831873905424</v>
+        <v>9145.5831873905427</v>
       </c>
       <c r="Q19" s="37">
-        <v>6.3536532399299475</v>
+        <v>6353.6532399299476</v>
       </c>
       <c r="R19" s="37">
-        <v>9.2880140105078812</v>
+        <v>9288.0140105078808</v>
       </c>
       <c r="S19" s="37">
-        <v>439.71300000000002</v>
+        <v>439713</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -2229,55 +2229,55 @@
         <v>19</v>
       </c>
       <c r="C20" s="37">
-        <v>91.309545754046141</v>
+        <v>91309.545754046136</v>
       </c>
       <c r="D20" s="37">
-        <v>98.080815439177627</v>
+        <v>98080.815439177633</v>
       </c>
       <c r="E20" s="37">
-        <v>92.730638806776241</v>
+        <v>92730.638806776245</v>
       </c>
       <c r="F20" s="37">
-        <v>75.552120882584717</v>
+        <v>75552.120882584713</v>
       </c>
       <c r="G20" s="37">
-        <v>73.395751986941349</v>
+        <v>73395.751986941352</v>
       </c>
       <c r="H20" s="37">
-        <v>69.567127130473935</v>
+        <v>69567.127130473935</v>
       </c>
       <c r="I20" s="37">
-        <v>6.4293333120780494</v>
+        <v>6429.3333120780489</v>
       </c>
       <c r="J20" s="37">
-        <v>61.832831921185402</v>
+        <v>61832.831921185403</v>
       </c>
       <c r="K20" s="37">
-        <v>56.383816641293166</v>
+        <v>56383.816641293168</v>
       </c>
       <c r="L20" s="37">
-        <v>49.751875950993707</v>
+        <v>49751.875950993708</v>
       </c>
       <c r="M20" s="37">
-        <v>44.706591850294245</v>
+        <v>44706.591850294244</v>
       </c>
       <c r="N20" s="37">
-        <v>39.627532198712053</v>
+        <v>39627.532198712055</v>
       </c>
       <c r="O20" s="37">
-        <v>32.241767816403076</v>
+        <v>32241.767816403077</v>
       </c>
       <c r="P20" s="37">
-        <v>21.763610165886856</v>
+        <v>21763.610165886857</v>
       </c>
       <c r="Q20" s="37">
-        <v>17.952746800201076</v>
+        <v>17952.746800201076</v>
       </c>
       <c r="R20" s="37">
-        <v>29.51187521750899</v>
+        <v>29511.87521750899</v>
       </c>
       <c r="S20" s="37">
-        <v>860.83798187455648</v>
+        <v>860837.98187455651</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -2286,55 +2286,55 @@
         <v>20</v>
       </c>
       <c r="C21" s="37">
-        <v>88.47045424595386</v>
+        <v>88470.454245953864</v>
       </c>
       <c r="D21" s="37">
-        <v>95.031184560822368</v>
+        <v>95031.184560822367</v>
       </c>
       <c r="E21" s="37">
-        <v>89.847361193223747</v>
+        <v>89847.361193223755</v>
       </c>
       <c r="F21" s="37">
-        <v>78.013879117415286</v>
+        <v>78013.879117415287</v>
       </c>
       <c r="G21" s="37">
-        <v>75.787248013058644</v>
+        <v>75787.248013058648</v>
       </c>
       <c r="H21" s="37">
-        <v>71.833872869526061</v>
+        <v>71833.872869526065</v>
       </c>
       <c r="I21" s="37">
-        <v>6.8186666879219509</v>
+        <v>6818.6666879219511</v>
       </c>
       <c r="J21" s="37">
-        <v>65.577168078814594</v>
+        <v>65577.16807881459</v>
       </c>
       <c r="K21" s="37">
-        <v>59.798183358706829</v>
+        <v>59798.183358706832</v>
       </c>
       <c r="L21" s="37">
-        <v>51.886124049006291</v>
+        <v>51886.124049006292</v>
       </c>
       <c r="M21" s="37">
-        <v>46.624408149705758</v>
+        <v>46624.408149705756</v>
       </c>
       <c r="N21" s="37">
-        <v>41.327467801287945</v>
+        <v>41327.467801287945</v>
       </c>
       <c r="O21" s="37">
-        <v>33.496232183596923</v>
+        <v>33496.232183596927</v>
       </c>
       <c r="P21" s="37">
-        <v>22.610389834113146</v>
+        <v>22610.389834113146</v>
       </c>
       <c r="Q21" s="37">
-        <v>18.651253199798926</v>
+        <v>18651.253199798928</v>
       </c>
       <c r="R21" s="37">
-        <v>30.660124782491014</v>
+        <v>30660.124782491013</v>
       </c>
       <c r="S21" s="37">
-        <v>876.43401812544346</v>
+        <v>876434.01812544349</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -2345,55 +2345,55 @@
         <v>19</v>
       </c>
       <c r="C22" s="37">
-        <v>28.751156008080052</v>
+        <v>28751.156008080052</v>
       </c>
       <c r="D22" s="37">
-        <v>30.832005908247027</v>
+        <v>30832.005908247025</v>
       </c>
       <c r="E22" s="37">
-        <v>27.603838083672922</v>
+        <v>27603.838083672923</v>
       </c>
       <c r="F22" s="37">
-        <v>19.501009647147768</v>
+        <v>19501.009647147766</v>
       </c>
       <c r="G22" s="37">
-        <v>19.971421302611471</v>
+        <v>19971.42130261147</v>
       </c>
       <c r="H22" s="37">
-        <v>19.483569050240767</v>
+        <v>19483.569050240767</v>
       </c>
       <c r="I22" s="37">
-        <v>18.587500829187402</v>
+        <v>18587.5008291874</v>
       </c>
       <c r="J22" s="37">
-        <v>16.570981908638625</v>
+        <v>16570.981908638627</v>
       </c>
       <c r="K22" s="37">
-        <v>1.1163408714005729</v>
+        <v>1116.340871400573</v>
       </c>
       <c r="L22" s="37">
-        <v>12.98749147077339</v>
+        <v>12987.49147077339</v>
       </c>
       <c r="M22" s="37">
-        <v>11.47500698613521</v>
+        <v>11475.006986135209</v>
       </c>
       <c r="N22" s="37">
-        <v>9.4235015430914046</v>
+        <v>9423.5015430914045</v>
       </c>
       <c r="O22" s="37">
-        <v>7.2778375498648824</v>
+        <v>7277.837549864882</v>
       </c>
       <c r="P22" s="37">
-        <v>5.308025067558872</v>
+        <v>5308.0250675588723</v>
       </c>
       <c r="Q22" s="37">
-        <v>3.392158100630549</v>
+        <v>3392.1581006305491</v>
       </c>
       <c r="R22" s="37">
-        <v>4.7749792819456953</v>
+        <v>4774.9792819456952</v>
       </c>
       <c r="S22" s="37">
-        <v>237.05682360922657</v>
+        <v>237056.82360922656</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -2402,70 +2402,70 @@
         <v>20</v>
       </c>
       <c r="C23" s="37">
-        <v>27.73284399191995</v>
+        <v>27732.843991919948</v>
       </c>
       <c r="D23" s="37">
-        <v>29.739994091752976</v>
+        <v>29739.994091752975</v>
       </c>
       <c r="E23" s="37">
-        <v>26.626161916327078</v>
+        <v>26626.161916327077</v>
       </c>
       <c r="F23" s="37">
-        <v>20.751990352852232</v>
+        <v>20751.990352852234</v>
       </c>
       <c r="G23" s="37">
-        <v>21.252578697388529</v>
+        <v>21252.57869738853</v>
       </c>
       <c r="H23" s="37">
-        <v>20.733430949759228</v>
+        <v>20733.430949759229</v>
       </c>
       <c r="I23" s="37">
-        <v>18.5594991708126</v>
+        <v>18559.4991708126</v>
       </c>
       <c r="J23" s="37">
-        <v>16.546018091361372</v>
+        <v>16546.018091361373</v>
       </c>
       <c r="K23" s="37">
-        <v>1.114659128599427</v>
+        <v>1114.659128599427</v>
       </c>
       <c r="L23" s="37">
-        <v>11.974508529226611</v>
+        <v>11974.50852922661</v>
       </c>
       <c r="M23" s="37">
-        <v>10.57999301386479</v>
+        <v>10579.993013864791</v>
       </c>
       <c r="N23" s="37">
-        <v>8.6884984569085955</v>
+        <v>8688.4984569085955</v>
       </c>
       <c r="O23" s="37">
-        <v>6.3481624501351179</v>
+        <v>6348.162450135118</v>
       </c>
       <c r="P23" s="37">
-        <v>4.6299749324411277</v>
+        <v>4629.9749324411277</v>
       </c>
       <c r="Q23" s="37">
-        <v>2.958841899369451</v>
+        <v>2958.8418993694509</v>
       </c>
       <c r="R23" s="37">
-        <v>4.1650207180543051</v>
+        <v>4165.0207180543048</v>
       </c>
       <c r="S23" s="37">
-        <v>232.40217639077343</v>
+        <v>232402.17639077344</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12596,17 +12596,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="A34:A49"/>
+    <mergeCell ref="A50:A65"/>
+    <mergeCell ref="A66:A81"/>
     <mergeCell ref="A162:A177"/>
     <mergeCell ref="A82:A97"/>
     <mergeCell ref="A98:A113"/>
     <mergeCell ref="A114:A129"/>
     <mergeCell ref="A130:A145"/>
     <mergeCell ref="A146:A161"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="A34:A49"/>
-    <mergeCell ref="A50:A65"/>
-    <mergeCell ref="A66:A81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22737,17 +22737,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="A34:A49"/>
+    <mergeCell ref="A50:A65"/>
+    <mergeCell ref="A66:A81"/>
     <mergeCell ref="A162:A177"/>
     <mergeCell ref="A82:A97"/>
     <mergeCell ref="A98:A113"/>
     <mergeCell ref="A114:A129"/>
     <mergeCell ref="A130:A145"/>
     <mergeCell ref="A146:A161"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="A34:A49"/>
-    <mergeCell ref="A50:A65"/>
-    <mergeCell ref="A66:A81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32878,17 +32878,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="A34:A49"/>
+    <mergeCell ref="A50:A65"/>
+    <mergeCell ref="A66:A81"/>
     <mergeCell ref="A162:A177"/>
     <mergeCell ref="A82:A97"/>
     <mergeCell ref="A98:A113"/>
     <mergeCell ref="A114:A129"/>
     <mergeCell ref="A130:A145"/>
     <mergeCell ref="A146:A161"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="A34:A49"/>
-    <mergeCell ref="A50:A65"/>
-    <mergeCell ref="A66:A81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -43019,17 +43019,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="A34:A49"/>
+    <mergeCell ref="A50:A65"/>
+    <mergeCell ref="A66:A81"/>
     <mergeCell ref="A162:A177"/>
     <mergeCell ref="A82:A97"/>
     <mergeCell ref="A98:A113"/>
     <mergeCell ref="A114:A129"/>
     <mergeCell ref="A130:A145"/>
     <mergeCell ref="A146:A161"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="A34:A49"/>
-    <mergeCell ref="A50:A65"/>
-    <mergeCell ref="A66:A81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -47887,7 +47887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>

--- a/data/input_data_peru.xlsx
+++ b/data/input_data_peru.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom.walsh\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFD1F90-5655-4972-9764-60B385D1F6D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE89B5B7-220E-4D95-857E-89B0EA2B117F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-7380" windowWidth="29040" windowHeight="15840" tabRatio="839" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-7380" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_sex" sheetId="1" r:id="rId1"/>
@@ -1112,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47887,7 +47887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N249"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
@@ -51156,8 +51156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51674,7 +51674,7 @@
         <v>0.1</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O9">
         <v>300</v>
@@ -51731,13 +51731,13 @@
         <v>0.1</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="Q10">
         <v>1000</v>
